--- a/Code/Results/Cases/Case_5_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.590198406397576</v>
+        <v>2.560441235934945</v>
       </c>
       <c r="C2">
-        <v>0.6479273233219374</v>
+        <v>0.5962110727413972</v>
       </c>
       <c r="D2">
-        <v>0.3344773453423358</v>
+        <v>0.08776283757288184</v>
       </c>
       <c r="E2">
-        <v>1.458982960119613</v>
+        <v>0.01644882345378829</v>
       </c>
       <c r="F2">
-        <v>6.574029785898063</v>
+        <v>6.814568689828405</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1461701391511383</v>
       </c>
       <c r="K2">
-        <v>0.7261000896964802</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5345496983490676</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.207838415520712</v>
+        <v>2.209453812627885</v>
       </c>
       <c r="C3">
-        <v>0.551059934667478</v>
+        <v>0.5101966290969244</v>
       </c>
       <c r="D3">
-        <v>0.2937554634179804</v>
+        <v>0.07511755156737365</v>
       </c>
       <c r="E3">
-        <v>1.237111862226513</v>
+        <v>0.016743788526421</v>
       </c>
       <c r="F3">
-        <v>5.72141489061292</v>
+        <v>6.091542649109385</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1350218267740289</v>
       </c>
       <c r="K3">
-        <v>0.6180521439203233</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4650173322030469</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.980496020506422</v>
+        <v>2.000182002722852</v>
       </c>
       <c r="C4">
-        <v>0.4936200238270771</v>
+        <v>0.4590211430945033</v>
       </c>
       <c r="D4">
-        <v>0.2695533610837089</v>
+        <v>0.06755646170449126</v>
       </c>
       <c r="E4">
-        <v>1.106125853166418</v>
+        <v>0.01695168855057716</v>
       </c>
       <c r="F4">
-        <v>5.213982338663271</v>
+        <v>5.659908267996286</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1284058413088971</v>
       </c>
       <c r="K4">
-        <v>0.5538508789428107</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.423743251473212</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.88940961045725</v>
+        <v>1.916259030101173</v>
       </c>
       <c r="C5">
-        <v>0.4706324750649742</v>
+        <v>0.4385197502936933</v>
       </c>
       <c r="D5">
-        <v>0.2598572217360697</v>
+        <v>0.06451786078895339</v>
       </c>
       <c r="E5">
-        <v>1.053828202328077</v>
+        <v>0.0170430345212047</v>
       </c>
       <c r="F5">
-        <v>5.010580822519586</v>
+        <v>5.486678711948656</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1257603461884713</v>
       </c>
       <c r="K5">
-        <v>0.528135075620078</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4072361829949358</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.874370589218756</v>
+        <v>1.902399913385977</v>
       </c>
       <c r="C6">
-        <v>0.4668383063686008</v>
+        <v>0.4351352406482363</v>
       </c>
       <c r="D6">
-        <v>0.2582562996469591</v>
+        <v>0.06401564567802609</v>
       </c>
       <c r="E6">
-        <v>1.045203180118705</v>
+        <v>0.0170585995885606</v>
       </c>
       <c r="F6">
-        <v>4.97699271488878</v>
+        <v>5.458063331867379</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1253239263889583</v>
       </c>
       <c r="K6">
-        <v>0.5238895350840238</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4045128641985869</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.979261669945856</v>
+        <v>1.999044955743955</v>
       </c>
       <c r="C7">
-        <v>0.4933084189193551</v>
+        <v>0.4587432975119725</v>
       </c>
       <c r="D7">
-        <v>0.2694219646755727</v>
+        <v>0.06751532012030026</v>
       </c>
       <c r="E7">
-        <v>1.105416463376187</v>
+        <v>0.01695289378682752</v>
       </c>
       <c r="F7">
-        <v>5.211226313251842</v>
+        <v>5.657561778025268</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1283699672349812</v>
       </c>
       <c r="K7">
-        <v>0.5535023693865995</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4235194213169251</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.456617441373794</v>
+        <v>2.437991673758916</v>
       </c>
       <c r="C8">
-        <v>0.6140443638891497</v>
+        <v>0.5661757465150004</v>
       </c>
       <c r="D8">
-        <v>0.3202474162060867</v>
+        <v>0.08335516837800583</v>
       </c>
       <c r="E8">
-        <v>1.381237501165359</v>
+        <v>0.01654489527178526</v>
       </c>
       <c r="F8">
-        <v>6.276283657748507</v>
+        <v>6.562441333830748</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.142274159355118</v>
       </c>
       <c r="K8">
-        <v>0.688341390620927</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.5102520453672099</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.468559522212217</v>
+        <v>3.359243883571821</v>
       </c>
       <c r="C9">
-        <v>0.8720575201973304</v>
+        <v>0.7929250265966346</v>
       </c>
       <c r="D9">
-        <v>0.428172700139072</v>
+        <v>0.1164687385966232</v>
       </c>
       <c r="E9">
-        <v>1.9769931924221</v>
+        <v>0.01596328884092735</v>
       </c>
       <c r="F9">
-        <v>8.528138435485005</v>
+        <v>8.45680349110873</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1717228665705122</v>
       </c>
       <c r="K9">
-        <v>0.9747439177941999</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6939093620544057</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.287975245833081</v>
+        <v>4.091101099001435</v>
       </c>
       <c r="C10">
-        <v>1.083613509161438</v>
+        <v>0.9744312625439306</v>
       </c>
       <c r="D10">
-        <v>0.5158130609771376</v>
+        <v>0.1427694850447239</v>
       </c>
       <c r="E10">
-        <v>2.472129846257317</v>
+        <v>0.01567901886504774</v>
       </c>
       <c r="F10">
-        <v>10.3442639471416</v>
+        <v>9.958131009255084</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1952865872357421</v>
       </c>
       <c r="K10">
-        <v>1.207374115694293</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.8409407627456673</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.686371107351874</v>
+        <v>4.441050567250784</v>
       </c>
       <c r="C11">
-        <v>1.187454200869382</v>
+        <v>1.061682204141789</v>
       </c>
       <c r="D11">
-        <v>0.5585076088651704</v>
+        <v>0.155362994066806</v>
       </c>
       <c r="E11">
-        <v>2.717533875335477</v>
+        <v>0.01558351828406845</v>
       </c>
       <c r="F11">
-        <v>11.22445405503601</v>
+        <v>10.67499481750588</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.206590106970225</v>
       </c>
       <c r="K11">
-        <v>1.320746364603252</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.9115244291845386</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.841965165292947</v>
+        <v>4.576541047367925</v>
       </c>
       <c r="C12">
-        <v>1.228196554735518</v>
+        <v>1.095546119448301</v>
       </c>
       <c r="D12">
-        <v>0.5751966490785492</v>
+        <v>0.1602430543848214</v>
       </c>
       <c r="E12">
-        <v>2.814273662961497</v>
+        <v>0.01555250360893368</v>
       </c>
       <c r="F12">
-        <v>11.56766714808697</v>
+        <v>10.95236785325091</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.210971503308123</v>
       </c>
       <c r="K12">
-        <v>1.365075223394996</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.9388954839237087</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.808224791069676</v>
+        <v>4.547219065156924</v>
       </c>
       <c r="C13">
-        <v>1.219352478929466</v>
+        <v>1.08821354040191</v>
       </c>
       <c r="D13">
-        <v>0.5715769647283935</v>
+        <v>0.1591867273329086</v>
       </c>
       <c r="E13">
-        <v>2.793251683631013</v>
+        <v>0.01555894899160926</v>
       </c>
       <c r="F13">
-        <v>11.49326877448732</v>
+        <v>10.8923489365186</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2100230928183748</v>
       </c>
       <c r="K13">
-        <v>1.355460066321271</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.9329700535400534</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.699070025843355</v>
+        <v>4.452134502246167</v>
       </c>
       <c r="C14">
-        <v>1.190775399168842</v>
+        <v>1.06445072276955</v>
       </c>
       <c r="D14">
-        <v>0.5598693922877089</v>
+        <v>0.1557621181880933</v>
       </c>
       <c r="E14">
-        <v>2.725410029482617</v>
+        <v>0.01558086164762074</v>
       </c>
       <c r="F14">
-        <v>11.25247744528178</v>
+        <v>10.69768930462351</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2069484337529843</v>
       </c>
       <c r="K14">
-        <v>1.324363197557417</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.9137626701371602</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.632861843777277</v>
+        <v>4.394296882314165</v>
       </c>
       <c r="C15">
-        <v>1.173467480470578</v>
+        <v>1.050007602808876</v>
       </c>
       <c r="D15">
-        <v>0.5527700781985061</v>
+        <v>0.1536796083762511</v>
       </c>
       <c r="E15">
-        <v>2.684383515780667</v>
+        <v>0.0155949638256061</v>
       </c>
       <c r="F15">
-        <v>11.10634951643488</v>
+        <v>10.57925884486832</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2050788297143811</v>
       </c>
       <c r="K15">
-        <v>1.305508287014518</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.9020849391977066</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.262537549784781</v>
+        <v>4.068616142443148</v>
       </c>
       <c r="C16">
-        <v>1.077006023984183</v>
+        <v>0.9688356179785274</v>
       </c>
       <c r="D16">
-        <v>0.5130888567865668</v>
+        <v>0.1419608092131881</v>
       </c>
       <c r="E16">
-        <v>2.456569226845303</v>
+        <v>0.01568596379766785</v>
       </c>
       <c r="F16">
-        <v>10.28799778903874</v>
+        <v>9.912048685708555</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1945610115479539</v>
       </c>
       <c r="K16">
-        <v>1.200141487057081</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.836411350354787</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.042575696265487</v>
+        <v>3.873523648938374</v>
       </c>
       <c r="C17">
-        <v>1.019980916030249</v>
+        <v>0.9203364716842657</v>
       </c>
       <c r="D17">
-        <v>0.4895418349748013</v>
+        <v>0.1349463625264633</v>
       </c>
       <c r="E17">
-        <v>2.322538887657601</v>
+        <v>0.01575063783187236</v>
       </c>
       <c r="F17">
-        <v>9.801144767401951</v>
+        <v>9.512098083570351</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1882694187724709</v>
       </c>
       <c r="K17">
-        <v>1.137630504493018</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7971421569952781</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.918395951757134</v>
+        <v>3.762877257381206</v>
       </c>
       <c r="C18">
-        <v>0.9878729785552594</v>
+        <v>0.8928712273939254</v>
       </c>
       <c r="D18">
-        <v>0.476255799607685</v>
+        <v>0.1309696108803706</v>
       </c>
       <c r="E18">
-        <v>2.247277866009313</v>
+        <v>0.01579099945634699</v>
       </c>
       <c r="F18">
-        <v>9.526048413651409</v>
+        <v>9.285175733127119</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1847044697176869</v>
       </c>
       <c r="K18">
-        <v>1.102363249909999</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7748958992568831</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.876724979036226</v>
+        <v>3.725668841222102</v>
       </c>
       <c r="C19">
-        <v>0.977112082051633</v>
+        <v>0.8836417470100173</v>
       </c>
       <c r="D19">
-        <v>0.4717986168416815</v>
+        <v>0.1296325062069883</v>
       </c>
       <c r="E19">
-        <v>2.22208677318298</v>
+        <v>0.01580520054565593</v>
       </c>
       <c r="F19">
-        <v>9.433696197072152</v>
+        <v>9.208850876887595</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1835062144795074</v>
       </c>
       <c r="K19">
-        <v>1.090532326993056</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7674191225640712</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.065742573090745</v>
+        <v>3.894126065431237</v>
       </c>
       <c r="C20">
-        <v>1.025977716528757</v>
+        <v>0.9254537722812017</v>
       </c>
       <c r="D20">
-        <v>0.4920210646004932</v>
+        <v>0.1356869458086862</v>
       </c>
       <c r="E20">
-        <v>2.336611592527817</v>
+        <v>0.01574342392271699</v>
       </c>
       <c r="F20">
-        <v>9.852447405469718</v>
+        <v>9.554343848826676</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.188933487730587</v>
       </c>
       <c r="K20">
-        <v>1.144211784978523</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8012864718497354</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.730993170775548</v>
+        <v>4.479977773219161</v>
       </c>
       <c r="C21">
-        <v>1.199127523131239</v>
+        <v>1.07140672253658</v>
       </c>
       <c r="D21">
-        <v>0.5632929479214113</v>
+        <v>0.1567648061831051</v>
       </c>
       <c r="E21">
-        <v>2.74522455772356</v>
+        <v>0.01557428305702935</v>
       </c>
       <c r="F21">
-        <v>11.32291476909592</v>
+        <v>10.75469581893151</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2078486426496085</v>
       </c>
       <c r="K21">
-        <v>1.33345622174987</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9193859111951639</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.194082031717301</v>
+        <v>4.880515421114069</v>
       </c>
       <c r="C22">
-        <v>1.32080318588649</v>
+        <v>1.171691860634667</v>
       </c>
       <c r="D22">
-        <v>0.6129942313280026</v>
+        <v>0.1712012124715017</v>
       </c>
       <c r="E22">
-        <v>3.035161333489725</v>
+        <v>0.01549392960517881</v>
       </c>
       <c r="F22">
-        <v>12.34317408652311</v>
+        <v>11.57429564126005</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2208099471243017</v>
       </c>
       <c r="K22">
-        <v>1.465504181830411</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.000384806428578</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.943898898646125</v>
+        <v>4.66492368248538</v>
       </c>
       <c r="C23">
-        <v>1.25494670349596</v>
+        <v>1.117661391373389</v>
       </c>
       <c r="D23">
-        <v>0.5861344428583948</v>
+        <v>0.1634277911475692</v>
       </c>
       <c r="E23">
-        <v>2.877934112559217</v>
+        <v>0.0155339434845283</v>
       </c>
       <c r="F23">
-        <v>11.79234144595034</v>
+        <v>11.13324941997223</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2138309064042758</v>
       </c>
       <c r="K23">
-        <v>1.3941322789955</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9567624216504171</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.055261802957716</v>
+        <v>3.884807032580568</v>
       </c>
       <c r="C24">
-        <v>1.023264478899534</v>
+        <v>0.9231389510132146</v>
       </c>
       <c r="D24">
-        <v>0.4908994298398</v>
+        <v>0.1353519553515099</v>
       </c>
       <c r="E24">
-        <v>2.330243796534205</v>
+        <v>0.01574667544809394</v>
       </c>
       <c r="F24">
-        <v>9.829238678127268</v>
+        <v>9.535235224212386</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1886331008900513</v>
       </c>
       <c r="K24">
-        <v>1.141234319795714</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7994118069004799</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.184006764048888</v>
+        <v>3.101849765558427</v>
       </c>
       <c r="C25">
-        <v>0.7991743735557293</v>
+        <v>0.7293862081614293</v>
       </c>
       <c r="D25">
-        <v>0.3977926361001209</v>
+        <v>0.1072233985370019</v>
       </c>
       <c r="E25">
-        <v>1.807827223874895</v>
+        <v>0.01609632254913684</v>
       </c>
       <c r="F25">
-        <v>7.895844005532638</v>
+        <v>7.928072731911783</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.163466505857798</v>
       </c>
       <c r="K25">
-        <v>0.8941189839664219</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0.6424147262755753</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.560441235934945</v>
+        <v>1.883156662534986</v>
       </c>
       <c r="C2">
-        <v>0.5962110727413972</v>
+        <v>0.1125111076105156</v>
       </c>
       <c r="D2">
-        <v>0.08776283757288184</v>
+        <v>0.004023642083987866</v>
       </c>
       <c r="E2">
-        <v>0.01644882345378829</v>
+        <v>0.02834279774383219</v>
       </c>
       <c r="F2">
-        <v>6.814568689828405</v>
+        <v>2.6607964838784</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1461701391511383</v>
+        <v>0.08411845999873435</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.662928936276586</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1935893325532874</v>
       </c>
       <c r="M2">
-        <v>0.5345496983490676</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.557895505571494</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.209453812627885</v>
+        <v>1.687742364386509</v>
       </c>
       <c r="C3">
-        <v>0.5101966290969244</v>
+        <v>0.09698527791640288</v>
       </c>
       <c r="D3">
-        <v>0.07511755156737365</v>
+        <v>0.003583716766385692</v>
       </c>
       <c r="E3">
-        <v>0.016743788526421</v>
+        <v>0.02742514987815348</v>
       </c>
       <c r="F3">
-        <v>6.091542649109385</v>
+        <v>2.553218824091161</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1350218267740289</v>
+        <v>0.0834137627422038</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.475619940463986</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1767048262457465</v>
       </c>
       <c r="M3">
-        <v>0.4650173322030469</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.57142611765326</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.000182002722852</v>
+        <v>1.570279477217269</v>
       </c>
       <c r="C4">
-        <v>0.4590211430945033</v>
+        <v>0.0875725773313718</v>
       </c>
       <c r="D4">
-        <v>0.06755646170449126</v>
+        <v>0.003311566114156506</v>
       </c>
       <c r="E4">
-        <v>0.01695168855057716</v>
+        <v>0.02689055517526917</v>
       </c>
       <c r="F4">
-        <v>5.659908267996286</v>
+        <v>2.490652915791813</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1284058413088971</v>
+        <v>0.08306041284694388</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.362838095217853</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1665937041057859</v>
       </c>
       <c r="M4">
-        <v>0.423743251473212</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.581865807871537</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.916259030101173</v>
+        <v>1.522991739456501</v>
       </c>
       <c r="C5">
-        <v>0.4385197502936933</v>
+        <v>0.08376245723488296</v>
       </c>
       <c r="D5">
-        <v>0.06451786078895339</v>
+        <v>0.003200129121205819</v>
       </c>
       <c r="E5">
-        <v>0.0170430345212047</v>
+        <v>0.02667967591591669</v>
       </c>
       <c r="F5">
-        <v>5.486678711948656</v>
+        <v>2.465980766936994</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1257603461884713</v>
+        <v>0.08293563401278803</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.317385623562842</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1625329916413492</v>
       </c>
       <c r="M5">
-        <v>0.4072361829949358</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2.586634527021232</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.902399913385977</v>
+        <v>1.515173102758069</v>
       </c>
       <c r="C6">
-        <v>0.4351352406482363</v>
+        <v>0.08313120954059627</v>
       </c>
       <c r="D6">
-        <v>0.06401564567802609</v>
+        <v>0.003181592385272936</v>
       </c>
       <c r="E6">
-        <v>0.0170585995885606</v>
+        <v>0.02664507284034379</v>
       </c>
       <c r="F6">
-        <v>5.458063331867379</v>
+        <v>2.461932261802218</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1253239263889583</v>
+        <v>0.08291605449664274</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.309867422531539</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1618621840183465</v>
       </c>
       <c r="M6">
-        <v>0.4045128641985869</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.587456838273312</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.999044955743955</v>
+        <v>1.569639462375932</v>
       </c>
       <c r="C7">
-        <v>0.4587432975119725</v>
+        <v>0.08752109477778447</v>
       </c>
       <c r="D7">
-        <v>0.06751532012030026</v>
+        <v>0.003310065418807184</v>
       </c>
       <c r="E7">
-        <v>0.01695289378682752</v>
+        <v>0.02688768331006486</v>
       </c>
       <c r="F7">
-        <v>5.657561778025268</v>
+        <v>2.490316909674959</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1283699672349812</v>
+        <v>0.08305865317468175</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.362223121522561</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1665387044084738</v>
       </c>
       <c r="M7">
-        <v>0.4235194213169251</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.581928064898975</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.437991673758916</v>
+        <v>1.815220025124859</v>
       </c>
       <c r="C8">
-        <v>0.5661757465150004</v>
+        <v>0.1071299728895099</v>
       </c>
       <c r="D8">
-        <v>0.08335516837800583</v>
+        <v>0.003872362504905524</v>
       </c>
       <c r="E8">
-        <v>0.01654489527178526</v>
+        <v>0.02802023065853376</v>
       </c>
       <c r="F8">
-        <v>6.562441333830748</v>
+        <v>2.622946903827213</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.142274159355118</v>
+        <v>0.08385855483256677</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.597849639029761</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1877114620206939</v>
       </c>
       <c r="M8">
-        <v>0.5102520453672099</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2.562104906967534</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.359243883571821</v>
+        <v>2.319518752312774</v>
       </c>
       <c r="C9">
-        <v>0.7929250265966346</v>
+        <v>0.1467639891224621</v>
       </c>
       <c r="D9">
-        <v>0.1164687385966232</v>
+        <v>0.004960359175290918</v>
       </c>
       <c r="E9">
-        <v>0.01596328884092735</v>
+        <v>0.03048385782498819</v>
       </c>
       <c r="F9">
-        <v>8.45680349110873</v>
+        <v>2.913301895375525</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1717228665705122</v>
+        <v>0.0860927528791855</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.080183132056845</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2314954572251935</v>
       </c>
       <c r="M9">
-        <v>0.6939093620544057</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2.541205748548094</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.091101099001435</v>
+        <v>2.70800968204793</v>
       </c>
       <c r="C10">
-        <v>0.9744312625439306</v>
+        <v>0.1769522392373091</v>
       </c>
       <c r="D10">
-        <v>0.1427694850447239</v>
+        <v>0.005753672881475325</v>
       </c>
       <c r="E10">
-        <v>0.01567901886504774</v>
+        <v>0.03246299309705414</v>
       </c>
       <c r="F10">
-        <v>9.958131009255084</v>
+        <v>3.14904560815512</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1952865872357421</v>
+        <v>0.08819500931256385</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.450895749015814</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2653998097917594</v>
       </c>
       <c r="M10">
-        <v>0.8409407627456673</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.538423854873841</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.441050567250784</v>
+        <v>2.889676231731755</v>
       </c>
       <c r="C11">
-        <v>1.061682204141789</v>
+        <v>0.1910052908258706</v>
       </c>
       <c r="D11">
-        <v>0.155362994066806</v>
+        <v>0.006114166791565623</v>
       </c>
       <c r="E11">
-        <v>0.01558351828406845</v>
+        <v>0.03340530564513422</v>
       </c>
       <c r="F11">
-        <v>10.67499481750588</v>
+        <v>3.262146802547306</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.206590106970225</v>
+        <v>0.08926510597945736</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.6240823022641</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2812890900032841</v>
       </c>
       <c r="M11">
-        <v>0.9115244291845386</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2.540292118371184</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.576541047367925</v>
+        <v>2.95927409445261</v>
       </c>
       <c r="C12">
-        <v>1.095546119448301</v>
+        <v>0.1963810431350055</v>
       </c>
       <c r="D12">
-        <v>0.1602430543848214</v>
+        <v>0.006250716765059394</v>
       </c>
       <c r="E12">
-        <v>0.01555250360893368</v>
+        <v>0.0337686547933469</v>
       </c>
       <c r="F12">
-        <v>10.95236785325091</v>
+        <v>3.305909772224481</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.210971503308123</v>
+        <v>0.08968795450017097</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.690409358926786</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2873811199853264</v>
       </c>
       <c r="M12">
-        <v>0.9388954839237087</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.541488151808352</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.547219065156924</v>
+        <v>2.944247554127003</v>
       </c>
       <c r="C13">
-        <v>1.08821354040191</v>
+        <v>0.1952207308105898</v>
       </c>
       <c r="D13">
-        <v>0.1591867273329086</v>
+        <v>0.00622130483579042</v>
       </c>
       <c r="E13">
-        <v>0.01555894899160926</v>
+        <v>0.03369010315250165</v>
       </c>
       <c r="F13">
-        <v>10.8923489365186</v>
+        <v>3.296441537015795</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2100230928183748</v>
+        <v>0.08959608101566019</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.67608994961617</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.286065614280588</v>
       </c>
       <c r="M13">
-        <v>0.9329700535400534</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.541208187862139</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.452134502246167</v>
+        <v>2.895385387665783</v>
       </c>
       <c r="C14">
-        <v>1.06445072276955</v>
+        <v>0.1914464219625387</v>
       </c>
       <c r="D14">
-        <v>0.1557621181880933</v>
+        <v>0.006125399448862368</v>
       </c>
       <c r="E14">
-        <v>0.01558086164762074</v>
+        <v>0.03343506510906202</v>
       </c>
       <c r="F14">
-        <v>10.69768930462351</v>
+        <v>3.265727932506309</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2069484337529843</v>
+        <v>0.08929953301029769</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.629523580791414</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2817887304663458</v>
       </c>
       <c r="M14">
-        <v>0.9137626701371602</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2.540380493435734</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.394296882314165</v>
+        <v>2.865563658574217</v>
       </c>
       <c r="C15">
-        <v>1.050007602808876</v>
+        <v>0.18914185889831</v>
       </c>
       <c r="D15">
-        <v>0.1536796083762511</v>
+        <v>0.006066662830686909</v>
       </c>
       <c r="E15">
-        <v>0.0155949638256061</v>
+        <v>0.03327971046502576</v>
       </c>
       <c r="F15">
-        <v>10.57925884486832</v>
+        <v>3.247039470012993</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2050788297143811</v>
+        <v>0.08912022403309194</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.601100232281539</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.279179050698545</v>
       </c>
       <c r="M15">
-        <v>0.9020849391977066</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2.539938327022512</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.068616142443148</v>
+        <v>2.69624459646235</v>
       </c>
       <c r="C16">
-        <v>0.9688356179785274</v>
+        <v>0.176040957442325</v>
       </c>
       <c r="D16">
-        <v>0.1419608092131881</v>
+        <v>0.005730113576383644</v>
       </c>
       <c r="E16">
-        <v>0.01568596379766785</v>
+        <v>0.03240229551419382</v>
       </c>
       <c r="F16">
-        <v>9.912048685708555</v>
+        <v>3.141779694288573</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1945610115479539</v>
+        <v>0.08812747065073623</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.439676686640468</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2643714586620831</v>
       </c>
       <c r="M16">
-        <v>0.836411350354787</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2.538367970558994</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.873523648938374</v>
+        <v>2.593702234265095</v>
       </c>
       <c r="C17">
-        <v>0.9203364716842657</v>
+        <v>0.1680915074050091</v>
       </c>
       <c r="D17">
-        <v>0.1349463625264633</v>
+        <v>0.005523613186179333</v>
       </c>
       <c r="E17">
-        <v>0.01575063783187236</v>
+        <v>0.0318751105927948</v>
       </c>
       <c r="F17">
-        <v>9.512098083570351</v>
+        <v>3.078769235954454</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1882694187724709</v>
+        <v>0.08754844902949799</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.341875246391453</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.255412344191754</v>
       </c>
       <c r="M17">
-        <v>0.7971421569952781</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.538232990335999</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.762877257381206</v>
+        <v>2.535181376379853</v>
       </c>
       <c r="C18">
-        <v>0.8928712273939254</v>
+        <v>0.1635488039593298</v>
       </c>
       <c r="D18">
-        <v>0.1309696108803706</v>
+        <v>0.005404796281064606</v>
       </c>
       <c r="E18">
-        <v>0.01579099945634699</v>
+        <v>0.03157580924181325</v>
       </c>
       <c r="F18">
-        <v>9.285175733127119</v>
+        <v>3.043072882211391</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1847044697176869</v>
+        <v>0.08722603663216688</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.286044495743482</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2503026321970339</v>
       </c>
       <c r="M18">
-        <v>0.7748958992568831</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.538447822074389</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.725668841222102</v>
+        <v>2.515443299126389</v>
       </c>
       <c r="C19">
-        <v>0.8836417470100173</v>
+        <v>0.1620155750595131</v>
       </c>
       <c r="D19">
-        <v>0.1296325062069883</v>
+        <v>0.00536455691062443</v>
       </c>
       <c r="E19">
-        <v>0.01580520054565593</v>
+        <v>0.03147513067406571</v>
       </c>
       <c r="F19">
-        <v>9.208850876887595</v>
+        <v>3.031077785136787</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1835062144795074</v>
+        <v>0.08711866175495331</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.267211024141886</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2485797806766357</v>
       </c>
       <c r="M19">
-        <v>0.7674191225640712</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.538569700713154</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.894126065431237</v>
+        <v>2.604569907408177</v>
       </c>
       <c r="C20">
-        <v>0.9254537722812017</v>
+        <v>0.1689346194297201</v>
       </c>
       <c r="D20">
-        <v>0.1356869458086862</v>
+        <v>0.005545599369014553</v>
       </c>
       <c r="E20">
-        <v>0.01574342392271699</v>
+        <v>0.03193082116159651</v>
       </c>
       <c r="F20">
-        <v>9.554343848826676</v>
+        <v>3.085419708076401</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.188933487730587</v>
+        <v>0.0876089784023506</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.352242065525559</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2563615163239348</v>
       </c>
       <c r="M20">
-        <v>0.8012864718497354</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>2.538216827727055</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.479977773219161</v>
+        <v>2.909714751286629</v>
       </c>
       <c r="C21">
-        <v>1.07140672253658</v>
+        <v>0.1925534887878371</v>
       </c>
       <c r="D21">
-        <v>0.1567648061831051</v>
+        <v>0.006153567278872174</v>
       </c>
       <c r="E21">
-        <v>0.01557428305702935</v>
+        <v>0.03350979508837071</v>
       </c>
       <c r="F21">
-        <v>10.75469581893151</v>
+        <v>3.274723138878784</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2078486426496085</v>
+        <v>0.08938614724031879</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.643180257371142</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2830428479925331</v>
       </c>
       <c r="M21">
-        <v>0.9193859111951639</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.54061002533696</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.880515421114069</v>
+        <v>3.113885900104208</v>
       </c>
       <c r="C22">
-        <v>1.171691860634667</v>
+        <v>0.208309942140346</v>
       </c>
       <c r="D22">
-        <v>0.1712012124715017</v>
+        <v>0.006551194504268665</v>
       </c>
       <c r="E22">
-        <v>0.01549392960517881</v>
+        <v>0.03457998171821863</v>
       </c>
       <c r="F22">
-        <v>11.57429564126005</v>
+        <v>3.40393743956713</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2208099471243017</v>
+        <v>0.09065105296832243</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.837717408066794</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3009227786692747</v>
       </c>
       <c r="M22">
-        <v>1.000384806428578</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2.545042473330483</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.66492368248538</v>
+        <v>3.004448305782319</v>
       </c>
       <c r="C23">
-        <v>1.117661391373389</v>
+        <v>0.1998682119681803</v>
       </c>
       <c r="D23">
-        <v>0.1634277911475692</v>
+        <v>0.006338910558543631</v>
       </c>
       <c r="E23">
-        <v>0.0155339434845283</v>
+        <v>0.03400513408068839</v>
       </c>
       <c r="F23">
-        <v>11.13324941997223</v>
+        <v>3.334437948379133</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2138309064042758</v>
+        <v>0.08996603254913538</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.733454715056013</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2913365722792634</v>
       </c>
       <c r="M23">
-        <v>0.9567624216504171</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2.542400714507266</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.884807032580568</v>
+        <v>2.599655293454759</v>
       </c>
       <c r="C24">
-        <v>0.9231389510132146</v>
+        <v>0.1685533633003757</v>
       </c>
       <c r="D24">
-        <v>0.1353519553515099</v>
+        <v>0.005535659725154574</v>
       </c>
       <c r="E24">
-        <v>0.01574667544809394</v>
+        <v>0.03190562266171959</v>
       </c>
       <c r="F24">
-        <v>9.535235224212386</v>
+        <v>3.082411388081042</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1886331008900513</v>
+        <v>0.08758158054011744</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.347553998044845</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2559322684914207</v>
       </c>
       <c r="M24">
-        <v>0.7994118069004799</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>2.538223226795111</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.101849765558427</v>
+        <v>2.180256393600018</v>
       </c>
       <c r="C25">
-        <v>0.7293862081614293</v>
+        <v>0.1358814717587364</v>
       </c>
       <c r="D25">
-        <v>0.1072233985370019</v>
+        <v>0.004667342577056033</v>
       </c>
       <c r="E25">
-        <v>0.01609632254913684</v>
+        <v>0.02978932658321298</v>
       </c>
       <c r="F25">
-        <v>7.928072731911783</v>
+        <v>2.831125058161248</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.163466505857798</v>
+        <v>0.08541170709414914</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.947139573768368</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.219373499822197</v>
       </c>
       <c r="M25">
-        <v>0.6424147262755753</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2.544777817873552</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.883156662534986</v>
+        <v>2.279501564648825</v>
       </c>
       <c r="C2">
-        <v>0.1125111076105156</v>
+        <v>0.03613163393042385</v>
       </c>
       <c r="D2">
-        <v>0.004023642083987866</v>
+        <v>0.007396171535118512</v>
       </c>
       <c r="E2">
-        <v>0.02834279774383219</v>
+        <v>0.07614127728833964</v>
       </c>
       <c r="F2">
-        <v>2.6607964838784</v>
+        <v>4.461247904343765</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08411845999873435</v>
+        <v>0.1909334364561239</v>
       </c>
       <c r="K2">
-        <v>1.662928936276586</v>
+        <v>1.709876221726944</v>
       </c>
       <c r="L2">
-        <v>0.1935893325532874</v>
+        <v>0.3211692963923198</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.557895505571494</v>
+        <v>4.371269726001032</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.687742364386509</v>
+        <v>2.243400116295135</v>
       </c>
       <c r="C3">
-        <v>0.09698527791640288</v>
+        <v>0.03193831572107797</v>
       </c>
       <c r="D3">
-        <v>0.003583716766385692</v>
+        <v>0.007351124521136398</v>
       </c>
       <c r="E3">
-        <v>0.02742514987815348</v>
+        <v>0.07627828469592934</v>
       </c>
       <c r="F3">
-        <v>2.553218824091161</v>
+        <v>4.449932950733128</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0834137627422038</v>
+        <v>0.1913817980919532</v>
       </c>
       <c r="K3">
-        <v>1.475619940463986</v>
+        <v>1.672240611952446</v>
       </c>
       <c r="L3">
-        <v>0.1767048262457465</v>
+        <v>0.3189368142782669</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.57142611765326</v>
+        <v>4.379460405894605</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.570279477217269</v>
+        <v>2.222451037213801</v>
       </c>
       <c r="C4">
-        <v>0.0875725773313718</v>
+        <v>0.02937647600124649</v>
       </c>
       <c r="D4">
-        <v>0.003311566114156506</v>
+        <v>0.007328578973478272</v>
       </c>
       <c r="E4">
-        <v>0.02689055517526917</v>
+        <v>0.07638527183219423</v>
       </c>
       <c r="F4">
-        <v>2.490652915791813</v>
+        <v>4.444562865237543</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08306041284694388</v>
+        <v>0.1917044313801846</v>
       </c>
       <c r="K4">
-        <v>1.362838095217853</v>
+        <v>1.650109606069549</v>
       </c>
       <c r="L4">
-        <v>0.1665937041057859</v>
+        <v>0.3177171516662725</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.581865807871537</v>
+        <v>4.385348231184537</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.522991739456501</v>
+        <v>2.214220414131688</v>
       </c>
       <c r="C5">
-        <v>0.08376245723488296</v>
+        <v>0.02833568208197335</v>
       </c>
       <c r="D5">
-        <v>0.003200129121205819</v>
+        <v>0.007320688106432272</v>
       </c>
       <c r="E5">
-        <v>0.02667967591591669</v>
+        <v>0.07643463369519132</v>
       </c>
       <c r="F5">
-        <v>2.465980766936994</v>
+        <v>4.442771181423694</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08293563401278803</v>
+        <v>0.1918478270541257</v>
       </c>
       <c r="K5">
-        <v>1.317385623562842</v>
+        <v>1.641336830198725</v>
       </c>
       <c r="L5">
-        <v>0.1625329916413492</v>
+        <v>0.3172581729289803</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.586634527021232</v>
+        <v>4.387963406231279</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.515173102758069</v>
+        <v>2.212872230637402</v>
       </c>
       <c r="C6">
-        <v>0.08313120954059627</v>
+        <v>0.02816304913454815</v>
       </c>
       <c r="D6">
-        <v>0.003181592385272936</v>
+        <v>0.007319456466948537</v>
       </c>
       <c r="E6">
-        <v>0.02664507284034379</v>
+        <v>0.07644317873528905</v>
       </c>
       <c r="F6">
-        <v>2.461932261802218</v>
+        <v>4.442497632788857</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08291605449664274</v>
+        <v>0.1918723582268989</v>
       </c>
       <c r="K6">
-        <v>1.309867422531539</v>
+        <v>1.63989496305166</v>
       </c>
       <c r="L6">
-        <v>0.1618621840183465</v>
+        <v>0.3171842591205873</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.587456838273312</v>
+        <v>4.388410687540528</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.569639462375932</v>
+        <v>2.222338795725364</v>
       </c>
       <c r="C7">
-        <v>0.08752109477778447</v>
+        <v>0.02936242670821798</v>
       </c>
       <c r="D7">
-        <v>0.003310065418807184</v>
+        <v>0.007328467289729801</v>
       </c>
       <c r="E7">
-        <v>0.02688768331006486</v>
+        <v>0.07638591418704266</v>
       </c>
       <c r="F7">
-        <v>2.490316909674959</v>
+        <v>4.4445370958328</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08305865317468175</v>
+        <v>0.1917063169785038</v>
       </c>
       <c r="K7">
-        <v>1.362223121522561</v>
+        <v>1.649990298139869</v>
       </c>
       <c r="L7">
-        <v>0.1665387044084738</v>
+        <v>0.3177108076131532</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.581928064898975</v>
+        <v>4.385382626573403</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.815220025124859</v>
+        <v>2.266801212470341</v>
       </c>
       <c r="C8">
-        <v>0.1071299728895099</v>
+        <v>0.03468306769246965</v>
       </c>
       <c r="D8">
-        <v>0.003872362504905524</v>
+        <v>0.007379584404757722</v>
       </c>
       <c r="E8">
-        <v>0.02802023065853376</v>
+        <v>0.07618378052860564</v>
       </c>
       <c r="F8">
-        <v>2.622946903827213</v>
+        <v>4.457019137313253</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08385855483256677</v>
+        <v>0.1910782164493519</v>
       </c>
       <c r="K8">
-        <v>1.597849639029761</v>
+        <v>1.696696589434652</v>
       </c>
       <c r="L8">
-        <v>0.1877114620206939</v>
+        <v>0.3203682064279221</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.562104906967534</v>
+        <v>4.373915587436187</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.319518752312774</v>
+        <v>2.363650991200359</v>
       </c>
       <c r="C9">
-        <v>0.1467639891224621</v>
+        <v>0.04522226193438428</v>
       </c>
       <c r="D9">
-        <v>0.004960359175290918</v>
+        <v>0.007519946974543501</v>
       </c>
       <c r="E9">
-        <v>0.03048385782498819</v>
+        <v>0.075968221618961</v>
       </c>
       <c r="F9">
-        <v>2.913301895375525</v>
+        <v>4.494016150565898</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0860927528791855</v>
+        <v>0.1902214516060567</v>
       </c>
       <c r="K9">
-        <v>2.080183132056845</v>
+        <v>1.796049890465724</v>
       </c>
       <c r="L9">
-        <v>0.2314954572251935</v>
+        <v>0.3267766505349385</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.541205748548094</v>
+        <v>4.358247702251745</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.70800968204793</v>
+        <v>2.440706717701914</v>
       </c>
       <c r="C10">
-        <v>0.1769522392373091</v>
+        <v>0.05303499218545937</v>
       </c>
       <c r="D10">
-        <v>0.005753672881475325</v>
+        <v>0.00764695789959724</v>
       </c>
       <c r="E10">
-        <v>0.03246299309705414</v>
+        <v>0.07591935155317131</v>
       </c>
       <c r="F10">
-        <v>3.14904560815512</v>
+        <v>4.528844567540176</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08819500931256385</v>
+        <v>0.1898197669933914</v>
       </c>
       <c r="K10">
-        <v>2.450895749015814</v>
+        <v>1.873797700398057</v>
       </c>
       <c r="L10">
-        <v>0.2653998097917594</v>
+        <v>0.3322137852194516</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.538423854873841</v>
+        <v>4.350902866766006</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.889676231731755</v>
+        <v>2.477045965152286</v>
       </c>
       <c r="C11">
-        <v>0.1910052908258706</v>
+        <v>0.05660550998992164</v>
       </c>
       <c r="D11">
-        <v>0.006114166791565623</v>
+        <v>0.007709808263019369</v>
       </c>
       <c r="E11">
-        <v>0.03340530564513422</v>
+        <v>0.07592074678250249</v>
       </c>
       <c r="F11">
-        <v>3.262146802547306</v>
+        <v>4.546353116990787</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08926510597945736</v>
+        <v>0.189686333797205</v>
       </c>
       <c r="K11">
-        <v>2.6240823022641</v>
+        <v>1.91020453904477</v>
       </c>
       <c r="L11">
-        <v>0.2812890900032841</v>
+        <v>0.3348454035266286</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.540292118371184</v>
+        <v>4.348468425253174</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.95927409445261</v>
+        <v>2.490991708428623</v>
       </c>
       <c r="C12">
-        <v>0.1963810431350055</v>
+        <v>0.05796002065480366</v>
       </c>
       <c r="D12">
-        <v>0.006250716765059394</v>
+        <v>0.007734327528474694</v>
       </c>
       <c r="E12">
-        <v>0.0337686547933469</v>
+        <v>0.07592465947683102</v>
       </c>
       <c r="F12">
-        <v>3.305909772224481</v>
+        <v>4.553222735057517</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08968795450017097</v>
+        <v>0.1896428808468222</v>
       </c>
       <c r="K12">
-        <v>2.690409358926786</v>
+        <v>1.924140485757448</v>
       </c>
       <c r="L12">
-        <v>0.2873811199853264</v>
+        <v>0.3358646537959942</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.541488151808352</v>
+        <v>4.347677124835812</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.944247554127003</v>
+        <v>2.487980022870943</v>
       </c>
       <c r="C13">
-        <v>0.1952207308105898</v>
+        <v>0.05766819329566886</v>
       </c>
       <c r="D13">
-        <v>0.00622130483579042</v>
+        <v>0.007729015040830234</v>
       </c>
       <c r="E13">
-        <v>0.03369010315250165</v>
+        <v>0.07592366649547522</v>
       </c>
       <c r="F13">
-        <v>3.296441537015795</v>
+        <v>4.551732585971024</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08959608101566019</v>
+        <v>0.1896519247501587</v>
       </c>
       <c r="K13">
-        <v>2.67608994961617</v>
+        <v>1.921132481575341</v>
       </c>
       <c r="L13">
-        <v>0.286065614280588</v>
+        <v>0.3356441304640754</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.541208187862139</v>
+        <v>4.347841735509846</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.895385387665783</v>
+        <v>2.478189585513746</v>
       </c>
       <c r="C14">
-        <v>0.1914464219625387</v>
+        <v>0.05671689726024454</v>
       </c>
       <c r="D14">
-        <v>0.006125399448862368</v>
+        <v>0.007711811121950518</v>
       </c>
       <c r="E14">
-        <v>0.03343506510906202</v>
+        <v>0.07592100092915821</v>
       </c>
       <c r="F14">
-        <v>3.265727932506309</v>
+        <v>4.546913483877063</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08929953301029769</v>
+        <v>0.1896826171724157</v>
       </c>
       <c r="K14">
-        <v>2.629523580791414</v>
+        <v>1.911348061824015</v>
       </c>
       <c r="L14">
-        <v>0.2817887304663458</v>
+        <v>0.3349288028768598</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.540380493435734</v>
+        <v>4.348400706639993</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.865563658574217</v>
+        <v>2.472216731333504</v>
       </c>
       <c r="C15">
-        <v>0.18914185889831</v>
+        <v>0.05613451976846306</v>
       </c>
       <c r="D15">
-        <v>0.006066662830686909</v>
+        <v>0.007701366584882408</v>
       </c>
       <c r="E15">
-        <v>0.03327971046502576</v>
+        <v>0.07591980854878955</v>
       </c>
       <c r="F15">
-        <v>3.247039470012993</v>
+        <v>4.543992839021371</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08912022403309194</v>
+        <v>0.1897023381907594</v>
       </c>
       <c r="K15">
-        <v>2.601100232281539</v>
+        <v>1.905374289296816</v>
       </c>
       <c r="L15">
-        <v>0.279179050698545</v>
+        <v>0.3344936008502799</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.539938327022512</v>
+        <v>4.34876010201539</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.69624459646235</v>
+        <v>2.438357735780585</v>
       </c>
       <c r="C16">
-        <v>0.176040957442325</v>
+        <v>0.05280198736640784</v>
       </c>
       <c r="D16">
-        <v>0.005730113576383644</v>
+        <v>0.007642951674572629</v>
       </c>
       <c r="E16">
-        <v>0.03240229551419382</v>
+        <v>0.07591973467317636</v>
       </c>
       <c r="F16">
-        <v>3.141779694288573</v>
+        <v>4.527733853227829</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08812747065073623</v>
+        <v>0.1898294779704592</v>
       </c>
       <c r="K16">
-        <v>2.439676686640468</v>
+        <v>1.871439339904384</v>
       </c>
       <c r="L16">
-        <v>0.2643714586620831</v>
+        <v>0.3320449834096451</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.538367970558994</v>
+        <v>4.351080224747321</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.593702234265095</v>
+        <v>2.417915696213413</v>
       </c>
       <c r="C17">
-        <v>0.1680915074050091</v>
+        <v>0.05076185052472226</v>
       </c>
       <c r="D17">
-        <v>0.005523613186179333</v>
+        <v>0.007608407872730538</v>
       </c>
       <c r="E17">
-        <v>0.0318751105927948</v>
+        <v>0.07592573129105951</v>
       </c>
       <c r="F17">
-        <v>3.078769235954454</v>
+        <v>4.518185985095641</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08754844902949799</v>
+        <v>0.1899200902538247</v>
       </c>
       <c r="K17">
-        <v>2.341875246391453</v>
+        <v>1.850887495707866</v>
       </c>
       <c r="L17">
-        <v>0.255412344191754</v>
+        <v>0.3305833350943459</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.538232990335999</v>
+        <v>4.352735913623093</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.535181376379853</v>
+        <v>2.406279045166855</v>
       </c>
       <c r="C18">
-        <v>0.1635488039593298</v>
+        <v>0.04958996385984449</v>
       </c>
       <c r="D18">
-        <v>0.005404796281064606</v>
+        <v>0.007589017237016549</v>
       </c>
       <c r="E18">
-        <v>0.03157580924181325</v>
+        <v>0.07593140499766449</v>
       </c>
       <c r="F18">
-        <v>3.043072882211391</v>
+        <v>4.5128510084878</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08722603663216688</v>
+        <v>0.1899768487155313</v>
       </c>
       <c r="K18">
-        <v>2.286044495743482</v>
+        <v>1.839164406877757</v>
       </c>
       <c r="L18">
-        <v>0.2503026321970339</v>
+        <v>0.3297575301809985</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.538447822074389</v>
+        <v>4.353773559748959</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.515443299126389</v>
+        <v>2.402359871960584</v>
       </c>
       <c r="C19">
-        <v>0.1620155750595131</v>
+        <v>0.04919344674075887</v>
       </c>
       <c r="D19">
-        <v>0.00536455691062443</v>
+        <v>0.00758253431932765</v>
       </c>
       <c r="E19">
-        <v>0.03147513067406571</v>
+        <v>0.07593370849758507</v>
       </c>
       <c r="F19">
-        <v>3.031077785136787</v>
+        <v>4.511071588463111</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08711866175495331</v>
+        <v>0.1899968636037421</v>
       </c>
       <c r="K19">
-        <v>2.267211024141886</v>
+        <v>1.835211963855073</v>
       </c>
       <c r="L19">
-        <v>0.2485797806766357</v>
+        <v>0.3294804865868457</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.538569700713154</v>
+        <v>4.354139540347944</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.604569907408177</v>
+        <v>2.420079256747385</v>
       </c>
       <c r="C20">
-        <v>0.1689346194297201</v>
+        <v>0.05097886608966462</v>
       </c>
       <c r="D20">
-        <v>0.005545599369014553</v>
+        <v>0.00761203571876834</v>
       </c>
       <c r="E20">
-        <v>0.03193082116159651</v>
+        <v>0.07592486279746957</v>
       </c>
       <c r="F20">
-        <v>3.085419708076401</v>
+        <v>4.51918615301318</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0876089784023506</v>
+        <v>0.1899099642275957</v>
       </c>
       <c r="K20">
-        <v>2.352242065525559</v>
+        <v>1.853065153457067</v>
       </c>
       <c r="L20">
-        <v>0.2563615163239348</v>
+        <v>0.3307373886186014</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.538216827727055</v>
+        <v>4.352550829361434</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.909714751286629</v>
+        <v>2.481060257990578</v>
       </c>
       <c r="C21">
-        <v>0.1925534887878371</v>
+        <v>0.0569962494112275</v>
       </c>
       <c r="D21">
-        <v>0.006153567278872174</v>
+        <v>0.007716844891804797</v>
       </c>
       <c r="E21">
-        <v>0.03350979508837071</v>
+        <v>0.07592169212415989</v>
       </c>
       <c r="F21">
-        <v>3.274723138878784</v>
+        <v>4.54832246992342</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08938614724031879</v>
+        <v>0.1896734101469661</v>
       </c>
       <c r="K21">
-        <v>2.643180257371142</v>
+        <v>1.914217926031881</v>
       </c>
       <c r="L21">
-        <v>0.2830428479925331</v>
+        <v>0.3351382958122571</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.54061002533696</v>
+        <v>4.348232978194062</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.113885900104208</v>
+        <v>2.521992329235729</v>
       </c>
       <c r="C22">
-        <v>0.208309942140346</v>
+        <v>0.06094316962493451</v>
       </c>
       <c r="D22">
-        <v>0.006551194504268665</v>
+        <v>0.007789531154255513</v>
       </c>
       <c r="E22">
-        <v>0.03457998171821863</v>
+        <v>0.07593934050798978</v>
       </c>
       <c r="F22">
-        <v>3.40393743956713</v>
+        <v>4.568760838496132</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09065105296832243</v>
+        <v>0.1895600426869208</v>
       </c>
       <c r="K22">
-        <v>2.837717408066794</v>
+        <v>1.955056042792421</v>
       </c>
       <c r="L22">
-        <v>0.3009227786692747</v>
+        <v>0.3381469166725282</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.545042473330483</v>
+        <v>4.346172159741002</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.004448305782319</v>
+        <v>2.500047553940306</v>
       </c>
       <c r="C23">
-        <v>0.1998682119681803</v>
+        <v>0.05883530194873288</v>
       </c>
       <c r="D23">
-        <v>0.006338910558543631</v>
+        <v>0.007750357311739009</v>
       </c>
       <c r="E23">
-        <v>0.03400513408068839</v>
+        <v>0.07592812109266589</v>
       </c>
       <c r="F23">
-        <v>3.334437948379133</v>
+        <v>4.557724719046035</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08996603254913538</v>
+        <v>0.1896167804160065</v>
       </c>
       <c r="K23">
-        <v>2.733454715056013</v>
+        <v>1.933180228689594</v>
       </c>
       <c r="L23">
-        <v>0.2913365722792634</v>
+        <v>0.3365290601553426</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.542400714507266</v>
+        <v>4.347202352062666</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.599655293454759</v>
+        <v>2.419100750477924</v>
       </c>
       <c r="C24">
-        <v>0.1685533633003757</v>
+        <v>0.05088075019720861</v>
       </c>
       <c r="D24">
-        <v>0.005535659725154574</v>
+        <v>0.007610394108116481</v>
       </c>
       <c r="E24">
-        <v>0.03190562266171959</v>
+        <v>0.07592524850841542</v>
       </c>
       <c r="F24">
-        <v>3.082411388081042</v>
+        <v>4.518733496718653</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08758158054011744</v>
+        <v>0.1899145276748868</v>
       </c>
       <c r="K24">
-        <v>2.347553998044845</v>
+        <v>1.852080346455978</v>
       </c>
       <c r="L24">
-        <v>0.2559322684914207</v>
+        <v>0.3306676958022621</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.538223226795111</v>
+        <v>4.352634238794479</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.180256393600018</v>
+        <v>2.336415308858193</v>
       </c>
       <c r="C25">
-        <v>0.1358814717587364</v>
+        <v>0.04235929651451897</v>
       </c>
       <c r="D25">
-        <v>0.004667342577056033</v>
+        <v>0.007477739695907815</v>
       </c>
       <c r="E25">
-        <v>0.02978932658321298</v>
+        <v>0.07600725391176155</v>
       </c>
       <c r="F25">
-        <v>2.831125058161248</v>
+        <v>4.482665705421567</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08541170709414914</v>
+        <v>0.1904131722146971</v>
       </c>
       <c r="K25">
-        <v>1.947139573768368</v>
+        <v>1.768339057237341</v>
       </c>
       <c r="L25">
-        <v>0.219373499822197</v>
+        <v>0.3249149307799257</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.544777817873552</v>
+        <v>4.361755317418897</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.279501564648825</v>
+        <v>1.883156662534901</v>
       </c>
       <c r="C2">
-        <v>0.03613163393042385</v>
+        <v>0.1125111076106862</v>
       </c>
       <c r="D2">
-        <v>0.007396171535118512</v>
+        <v>0.004023642084110435</v>
       </c>
       <c r="E2">
-        <v>0.07614127728833964</v>
+        <v>0.02834279774381621</v>
       </c>
       <c r="F2">
-        <v>4.461247904343765</v>
+        <v>2.660796483878372</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1909334364561239</v>
+        <v>0.0841184599987379</v>
       </c>
       <c r="K2">
-        <v>1.709876221726944</v>
+        <v>1.662928936276614</v>
       </c>
       <c r="L2">
-        <v>0.3211692963923198</v>
+        <v>0.1935893325533371</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.371269726001032</v>
+        <v>2.557895505571494</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.243400116295135</v>
+        <v>1.687742364386452</v>
       </c>
       <c r="C3">
-        <v>0.03193831572107797</v>
+        <v>0.09698527791614708</v>
       </c>
       <c r="D3">
-        <v>0.007351124521136398</v>
+        <v>0.003583716766476286</v>
       </c>
       <c r="E3">
-        <v>0.07627828469592934</v>
+        <v>0.0274251498781517</v>
       </c>
       <c r="F3">
-        <v>4.449932950733128</v>
+        <v>2.553218824091175</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1913817980919532</v>
+        <v>0.08341376274231393</v>
       </c>
       <c r="K3">
-        <v>1.672240611952446</v>
+        <v>1.475619940464014</v>
       </c>
       <c r="L3">
-        <v>0.3189368142782669</v>
+        <v>0.1767048262457394</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.379460405894605</v>
+        <v>2.571426117653246</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.222451037213801</v>
+        <v>1.570279477217213</v>
       </c>
       <c r="C4">
-        <v>0.02937647600124649</v>
+        <v>0.08757257733118706</v>
       </c>
       <c r="D4">
-        <v>0.007328578973478272</v>
+        <v>0.003311566114190256</v>
       </c>
       <c r="E4">
-        <v>0.07638527183219423</v>
+        <v>0.02689055517528161</v>
       </c>
       <c r="F4">
-        <v>4.444562865237543</v>
+        <v>2.490652915791856</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1917044313801846</v>
+        <v>0.08306041284696519</v>
       </c>
       <c r="K4">
-        <v>1.650109606069549</v>
+        <v>1.362838095217768</v>
       </c>
       <c r="L4">
-        <v>0.3177171516662725</v>
+        <v>0.1665937041059422</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.385348231184537</v>
+        <v>2.581865807871608</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.214220414131688</v>
+        <v>1.522991739456813</v>
       </c>
       <c r="C5">
-        <v>0.02833568208197335</v>
+        <v>0.0837624572351956</v>
       </c>
       <c r="D5">
-        <v>0.007320688106432272</v>
+        <v>0.003200129121324835</v>
       </c>
       <c r="E5">
-        <v>0.07643463369519132</v>
+        <v>0.02667967591592024</v>
       </c>
       <c r="F5">
-        <v>4.442771181423694</v>
+        <v>2.465980766937008</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1918478270541257</v>
+        <v>0.08293563401263526</v>
       </c>
       <c r="K5">
-        <v>1.641336830198725</v>
+        <v>1.31738562356287</v>
       </c>
       <c r="L5">
-        <v>0.3172581729289803</v>
+        <v>0.1625329916413989</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.387963406231279</v>
+        <v>2.586634527021175</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.212872230637402</v>
+        <v>1.515173102758041</v>
       </c>
       <c r="C6">
-        <v>0.02816304913454815</v>
+        <v>0.0831312095407668</v>
       </c>
       <c r="D6">
-        <v>0.007319456466948537</v>
+        <v>0.003181592385280041</v>
       </c>
       <c r="E6">
-        <v>0.07644317873528905</v>
+        <v>0.02664507284031004</v>
       </c>
       <c r="F6">
-        <v>4.442497632788857</v>
+        <v>2.461932261802218</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1918723582268989</v>
+        <v>0.08291605449666051</v>
       </c>
       <c r="K6">
-        <v>1.63989496305166</v>
+        <v>1.309867422531539</v>
       </c>
       <c r="L6">
-        <v>0.3171842591205873</v>
+        <v>0.1618621840184105</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4.388410687540528</v>
+        <v>2.587456838273354</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.222338795725364</v>
+        <v>1.569639462375903</v>
       </c>
       <c r="C7">
-        <v>0.02936242670821798</v>
+        <v>0.08752109477785552</v>
       </c>
       <c r="D7">
-        <v>0.007328467289729801</v>
+        <v>0.003310065419018571</v>
       </c>
       <c r="E7">
-        <v>0.07638591418704266</v>
+        <v>0.02688768331007907</v>
       </c>
       <c r="F7">
-        <v>4.4445370958328</v>
+        <v>2.490316909674931</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1917063169785038</v>
+        <v>0.08305865317466044</v>
       </c>
       <c r="K7">
-        <v>1.649990298139869</v>
+        <v>1.36222312152259</v>
       </c>
       <c r="L7">
-        <v>0.3177108076131532</v>
+        <v>0.1665387044084525</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4.385382626573403</v>
+        <v>2.581928064899017</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.266801212470341</v>
+        <v>1.815220025125029</v>
       </c>
       <c r="C8">
-        <v>0.03468306769246965</v>
+        <v>0.1071299728895241</v>
       </c>
       <c r="D8">
-        <v>0.007379584404757722</v>
+        <v>0.003872362504907301</v>
       </c>
       <c r="E8">
-        <v>0.07618378052860564</v>
+        <v>0.0280202306585231</v>
       </c>
       <c r="F8">
-        <v>4.457019137313253</v>
+        <v>2.622946903827213</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1910782164493519</v>
+        <v>0.0838585548326094</v>
       </c>
       <c r="K8">
-        <v>1.696696589434652</v>
+        <v>1.597849639029761</v>
       </c>
       <c r="L8">
-        <v>0.3203682064279221</v>
+        <v>0.1877114620206797</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.373915587436187</v>
+        <v>2.562104906967548</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.363650991200359</v>
+        <v>2.319518752312604</v>
       </c>
       <c r="C9">
-        <v>0.04522226193438428</v>
+        <v>0.1467639891226895</v>
       </c>
       <c r="D9">
-        <v>0.007519946974543501</v>
+        <v>0.004960359175422369</v>
       </c>
       <c r="E9">
-        <v>0.075968221618961</v>
+        <v>0.03048385782506458</v>
       </c>
       <c r="F9">
-        <v>4.494016150565898</v>
+        <v>2.913301895375497</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1902214516060567</v>
+        <v>0.08609275287915708</v>
       </c>
       <c r="K9">
-        <v>1.796049890465724</v>
+        <v>2.080183132056902</v>
       </c>
       <c r="L9">
-        <v>0.3267766505349385</v>
+        <v>0.231495457225094</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.358247702251745</v>
+        <v>2.541205748548109</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.440706717701914</v>
+        <v>2.708009682047759</v>
       </c>
       <c r="C10">
-        <v>0.05303499218545937</v>
+        <v>0.1769522392377638</v>
       </c>
       <c r="D10">
-        <v>0.00764695789959724</v>
+        <v>0.005753672881699146</v>
       </c>
       <c r="E10">
-        <v>0.07591935155317131</v>
+        <v>0.03246299309707723</v>
       </c>
       <c r="F10">
-        <v>4.528844567540176</v>
+        <v>3.149045608155149</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1898197669933914</v>
+        <v>0.08819500931258517</v>
       </c>
       <c r="K10">
-        <v>1.873797700398057</v>
+        <v>2.450895749015757</v>
       </c>
       <c r="L10">
-        <v>0.3322137852194516</v>
+        <v>0.2653998097917309</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.350902866766006</v>
+        <v>2.538423854873813</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.477045965152286</v>
+        <v>2.889676231731869</v>
       </c>
       <c r="C11">
-        <v>0.05660550998992164</v>
+        <v>0.1910052908261122</v>
       </c>
       <c r="D11">
-        <v>0.007709808263019369</v>
+        <v>0.006114166791590492</v>
       </c>
       <c r="E11">
-        <v>0.07592074678250249</v>
+        <v>0.03340530564511468</v>
       </c>
       <c r="F11">
-        <v>4.546353116990787</v>
+        <v>3.262146802547306</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.189686333797205</v>
+        <v>0.0892651059795071</v>
       </c>
       <c r="K11">
-        <v>1.91020453904477</v>
+        <v>2.624082302264014</v>
       </c>
       <c r="L11">
-        <v>0.3348454035266286</v>
+        <v>0.2812890900032556</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.348468425253174</v>
+        <v>2.540292118371212</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.490991708428623</v>
+        <v>2.959274094452553</v>
       </c>
       <c r="C12">
-        <v>0.05796002065480366</v>
+        <v>0.1963810431350055</v>
       </c>
       <c r="D12">
-        <v>0.007734327528474694</v>
+        <v>0.006250716764942155</v>
       </c>
       <c r="E12">
-        <v>0.07592465947683102</v>
+        <v>0.0337686547933469</v>
       </c>
       <c r="F12">
-        <v>4.553222735057517</v>
+        <v>3.305909772224481</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1896428808468222</v>
+        <v>0.08968795450023848</v>
       </c>
       <c r="K12">
-        <v>1.924140485757448</v>
+        <v>2.690409358926786</v>
       </c>
       <c r="L12">
-        <v>0.3358646537959942</v>
+        <v>0.2873811199853833</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.347677124835812</v>
+        <v>2.541488151808323</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.487980022870943</v>
+        <v>2.944247554126832</v>
       </c>
       <c r="C13">
-        <v>0.05766819329566886</v>
+        <v>0.1952207308098792</v>
       </c>
       <c r="D13">
-        <v>0.007729015040830234</v>
+        <v>0.006221304836024899</v>
       </c>
       <c r="E13">
-        <v>0.07592366649547522</v>
+        <v>0.0336901031524679</v>
       </c>
       <c r="F13">
-        <v>4.551732585971024</v>
+        <v>3.296441537015852</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1896519247501587</v>
+        <v>0.08959608101569216</v>
       </c>
       <c r="K13">
-        <v>1.921132481575341</v>
+        <v>2.676089949616198</v>
       </c>
       <c r="L13">
-        <v>0.3356441304640754</v>
+        <v>0.2860656142805027</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.347841735509846</v>
+        <v>2.541208187862168</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.478189585513746</v>
+        <v>2.895385387665897</v>
       </c>
       <c r="C14">
-        <v>0.05671689726024454</v>
+        <v>0.1914464219622687</v>
       </c>
       <c r="D14">
-        <v>0.007711811121950518</v>
+        <v>0.006125399448855262</v>
       </c>
       <c r="E14">
-        <v>0.07592100092915821</v>
+        <v>0.03343506510905492</v>
       </c>
       <c r="F14">
-        <v>4.546913483877063</v>
+        <v>3.265727932506309</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1896826171724157</v>
+        <v>0.08929953301029414</v>
       </c>
       <c r="K14">
-        <v>1.911348061824015</v>
+        <v>2.629523580791329</v>
       </c>
       <c r="L14">
-        <v>0.3349288028768598</v>
+        <v>0.2817887304661468</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.348400706639993</v>
+        <v>2.54038049343572</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.472216731333504</v>
+        <v>2.865563658574047</v>
       </c>
       <c r="C15">
-        <v>0.05613451976846306</v>
+        <v>0.1891418588982958</v>
       </c>
       <c r="D15">
-        <v>0.007701366584882408</v>
+        <v>0.006066662830804148</v>
       </c>
       <c r="E15">
-        <v>0.07591980854878955</v>
+        <v>0.03327971046502576</v>
       </c>
       <c r="F15">
-        <v>4.543992839021371</v>
+        <v>3.247039470012993</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1897023381907594</v>
+        <v>0.08912022403315589</v>
       </c>
       <c r="K15">
-        <v>1.905374289296816</v>
+        <v>2.601100232281595</v>
       </c>
       <c r="L15">
-        <v>0.3344936008502799</v>
+        <v>0.2791790506986018</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.34876010201539</v>
+        <v>2.539938327022483</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.438357735780585</v>
+        <v>2.696244596462407</v>
       </c>
       <c r="C16">
-        <v>0.05280198736640784</v>
+        <v>0.1760409574425523</v>
       </c>
       <c r="D16">
-        <v>0.007642951674572629</v>
+        <v>0.005730113576372986</v>
       </c>
       <c r="E16">
-        <v>0.07591973467317636</v>
+        <v>0.03240229551416007</v>
       </c>
       <c r="F16">
-        <v>4.527733853227829</v>
+        <v>3.141779694288545</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1898294779704592</v>
+        <v>0.0881274706507682</v>
       </c>
       <c r="K16">
-        <v>1.871439339904384</v>
+        <v>2.439676686640439</v>
       </c>
       <c r="L16">
-        <v>0.3320449834096451</v>
+        <v>0.2643714586620547</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.351080224747321</v>
+        <v>2.538367970558966</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.417915696213413</v>
+        <v>2.593702234264924</v>
       </c>
       <c r="C17">
-        <v>0.05076185052472226</v>
+        <v>0.1680915074050233</v>
       </c>
       <c r="D17">
-        <v>0.007608407872730538</v>
+        <v>0.005523613186305454</v>
       </c>
       <c r="E17">
-        <v>0.07592573129105951</v>
+        <v>0.03187511059279657</v>
       </c>
       <c r="F17">
-        <v>4.518185985095641</v>
+        <v>3.078769235954454</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1899200902538247</v>
+        <v>0.0875484490294447</v>
       </c>
       <c r="K17">
-        <v>1.850887495707866</v>
+        <v>2.341875246391481</v>
       </c>
       <c r="L17">
-        <v>0.3305833350943459</v>
+        <v>0.2554123441917113</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.352735913623093</v>
+        <v>2.538232990336013</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.406279045166855</v>
+        <v>2.535181376379683</v>
       </c>
       <c r="C18">
-        <v>0.04958996385984449</v>
+        <v>0.1635488039592872</v>
       </c>
       <c r="D18">
-        <v>0.007589017237016549</v>
+        <v>0.005404796281176516</v>
       </c>
       <c r="E18">
-        <v>0.07593140499766449</v>
+        <v>0.03157580924183812</v>
       </c>
       <c r="F18">
-        <v>4.5128510084878</v>
+        <v>3.043072882211391</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1899768487155313</v>
+        <v>0.08722603663221662</v>
       </c>
       <c r="K18">
-        <v>1.839164406877757</v>
+        <v>2.286044495743539</v>
       </c>
       <c r="L18">
-        <v>0.3297575301809985</v>
+        <v>0.2503026321970765</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4.353773559748959</v>
+        <v>2.538447822074346</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.402359871960584</v>
+        <v>2.515443299126332</v>
       </c>
       <c r="C19">
-        <v>0.04919344674075887</v>
+        <v>0.1620155750595416</v>
       </c>
       <c r="D19">
-        <v>0.00758253431932765</v>
+        <v>0.005364556910752327</v>
       </c>
       <c r="E19">
-        <v>0.07593370849758507</v>
+        <v>0.03147513067407459</v>
       </c>
       <c r="F19">
-        <v>4.511071588463111</v>
+        <v>3.031077785136773</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1899968636037421</v>
+        <v>0.08711866175498173</v>
       </c>
       <c r="K19">
-        <v>1.835211963855073</v>
+        <v>2.267211024141773</v>
       </c>
       <c r="L19">
-        <v>0.3294804865868457</v>
+        <v>0.2485797806766641</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4.354139540347944</v>
+        <v>2.538569700713083</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.420079256747385</v>
+        <v>2.604569907408234</v>
       </c>
       <c r="C20">
-        <v>0.05097886608966462</v>
+        <v>0.1689346194292796</v>
       </c>
       <c r="D20">
-        <v>0.00761203571876834</v>
+        <v>0.005545599369023435</v>
       </c>
       <c r="E20">
-        <v>0.07592486279746957</v>
+        <v>0.03193082116156454</v>
       </c>
       <c r="F20">
-        <v>4.51918615301318</v>
+        <v>3.085419708076401</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1899099642275957</v>
+        <v>0.08760897840236126</v>
       </c>
       <c r="K20">
-        <v>1.853065153457067</v>
+        <v>2.352242065525616</v>
       </c>
       <c r="L20">
-        <v>0.3307373886186014</v>
+        <v>0.256361516323949</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.352550829361434</v>
+        <v>2.538216827727084</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.481060257990578</v>
+        <v>2.909714751286856</v>
       </c>
       <c r="C21">
-        <v>0.0569962494112275</v>
+        <v>0.1925534887885476</v>
       </c>
       <c r="D21">
-        <v>0.007716844891804797</v>
+        <v>0.006153567278769145</v>
       </c>
       <c r="E21">
-        <v>0.07592169212415989</v>
+        <v>0.03350979508831564</v>
       </c>
       <c r="F21">
-        <v>4.54832246992342</v>
+        <v>3.274723138878812</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1896734101469661</v>
+        <v>0.08938614724029748</v>
       </c>
       <c r="K21">
-        <v>1.914217926031881</v>
+        <v>2.643180257371114</v>
       </c>
       <c r="L21">
-        <v>0.3351382958122571</v>
+        <v>0.2830428479925899</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.348232978194062</v>
+        <v>2.54061002533696</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.521992329235729</v>
+        <v>3.113885900104208</v>
       </c>
       <c r="C22">
-        <v>0.06094316962493451</v>
+        <v>0.2083099421403602</v>
       </c>
       <c r="D22">
-        <v>0.007789531154255513</v>
+        <v>0.006551194504037738</v>
       </c>
       <c r="E22">
-        <v>0.07593934050798978</v>
+        <v>0.03457998171822041</v>
       </c>
       <c r="F22">
-        <v>4.568760838496132</v>
+        <v>3.40393743956713</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1895600426869208</v>
+        <v>0.0906510529684077</v>
       </c>
       <c r="K22">
-        <v>1.955056042792421</v>
+        <v>2.837717408066709</v>
       </c>
       <c r="L22">
-        <v>0.3381469166725282</v>
+        <v>0.3009227786691753</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.346172159741002</v>
+        <v>2.545042473330511</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.500047553940306</v>
+        <v>3.004448305782319</v>
       </c>
       <c r="C23">
-        <v>0.05883530194873288</v>
+        <v>0.1998682119681519</v>
       </c>
       <c r="D23">
-        <v>0.007750357311739009</v>
+        <v>0.006338910558540078</v>
       </c>
       <c r="E23">
-        <v>0.07592812109266589</v>
+        <v>0.03400513408068662</v>
       </c>
       <c r="F23">
-        <v>4.557724719046035</v>
+        <v>3.334437948379104</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1896167804160065</v>
+        <v>0.08996603254913182</v>
       </c>
       <c r="K23">
-        <v>1.933180228689594</v>
+        <v>2.73345471505607</v>
       </c>
       <c r="L23">
-        <v>0.3365290601553426</v>
+        <v>0.291336572279306</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.347202352062666</v>
+        <v>2.542400714507266</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.419100750477924</v>
+        <v>2.599655293454703</v>
       </c>
       <c r="C24">
-        <v>0.05088075019720861</v>
+        <v>0.1685533633001342</v>
       </c>
       <c r="D24">
-        <v>0.007610394108116481</v>
+        <v>0.005535659725023123</v>
       </c>
       <c r="E24">
-        <v>0.07592524850841542</v>
+        <v>0.03190562266171426</v>
       </c>
       <c r="F24">
-        <v>4.518733496718653</v>
+        <v>3.082411388080985</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1899145276748868</v>
+        <v>0.08758158054020626</v>
       </c>
       <c r="K24">
-        <v>1.852080346455978</v>
+        <v>2.347553998044816</v>
       </c>
       <c r="L24">
-        <v>0.3306676958022621</v>
+        <v>0.2559322684914633</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4.352634238794479</v>
+        <v>2.53822322679504</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.336415308858193</v>
+        <v>2.180256393600132</v>
       </c>
       <c r="C25">
-        <v>0.04235929651451897</v>
+        <v>0.1358814717587222</v>
       </c>
       <c r="D25">
-        <v>0.007477739695907815</v>
+        <v>0.004667342576935241</v>
       </c>
       <c r="E25">
-        <v>0.07600725391176155</v>
+        <v>0.02978932658321298</v>
       </c>
       <c r="F25">
-        <v>4.482665705421567</v>
+        <v>2.831125058161248</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1904131722146971</v>
+        <v>0.08541170709414203</v>
       </c>
       <c r="K25">
-        <v>1.768339057237341</v>
+        <v>1.947139573768339</v>
       </c>
       <c r="L25">
-        <v>0.3249149307799257</v>
+        <v>0.2193734998222112</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.361755317418897</v>
+        <v>2.544777817873666</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.883156662534901</v>
+        <v>2.431306795466639</v>
       </c>
       <c r="C2">
-        <v>0.1125111076106862</v>
+        <v>1.059456408526387</v>
       </c>
       <c r="D2">
-        <v>0.004023642084110435</v>
+        <v>0.003325916060044287</v>
       </c>
       <c r="E2">
-        <v>0.02834279774381621</v>
+        <v>0.03944865213340876</v>
       </c>
       <c r="F2">
-        <v>2.660796483878372</v>
+        <v>2.98169879209911</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0.004040415295771593</v>
+      </c>
+      <c r="I2">
+        <v>0.003616714146923883</v>
+      </c>
+      <c r="J2">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.0841184599987379</v>
-      </c>
       <c r="K2">
-        <v>1.662928936276614</v>
+        <v>1.468958633025082</v>
       </c>
       <c r="L2">
-        <v>0.1935893325533371</v>
+        <v>0.1068561534998054</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.557895505571494</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6927668031752745</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.687742364386452</v>
+        <v>2.114427303118248</v>
       </c>
       <c r="C3">
-        <v>0.09698527791614708</v>
+        <v>0.9198553990187008</v>
       </c>
       <c r="D3">
-        <v>0.003583716766476286</v>
+        <v>0.002774922830608428</v>
       </c>
       <c r="E3">
-        <v>0.0274251498781517</v>
+        <v>0.03476622703454701</v>
       </c>
       <c r="F3">
-        <v>2.553218824091175</v>
+        <v>2.710812228210429</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.007313885838117651</v>
+      </c>
+      <c r="I3">
+        <v>0.006657159412940317</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.08341376274231393</v>
-      </c>
       <c r="K3">
-        <v>1.475619940464014</v>
+        <v>1.353939993598729</v>
       </c>
       <c r="L3">
-        <v>0.1767048262457394</v>
+        <v>0.09432279933134424</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.571426117653246</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6043044170704732</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.570279477217213</v>
+        <v>1.92040255021368</v>
       </c>
       <c r="C4">
-        <v>0.08757257733118706</v>
+        <v>0.8352618003162888</v>
       </c>
       <c r="D4">
-        <v>0.003311566114190256</v>
+        <v>0.002462981599869796</v>
       </c>
       <c r="E4">
-        <v>0.02689055517528161</v>
+        <v>0.03194601645803274</v>
       </c>
       <c r="F4">
-        <v>2.490652915791856</v>
+        <v>2.544743963127743</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.009881649421902589</v>
+      </c>
+      <c r="I4">
+        <v>0.009132217529092657</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.08306041284696519</v>
-      </c>
       <c r="K4">
-        <v>1.362838095217768</v>
+        <v>1.283031120264482</v>
       </c>
       <c r="L4">
-        <v>0.1665937041059422</v>
+        <v>0.08668181143683995</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.581865807871608</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5502805593363718</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.522991739456813</v>
+        <v>1.841257915028763</v>
       </c>
       <c r="C5">
-        <v>0.0837624572351956</v>
+        <v>0.8018923790228314</v>
       </c>
       <c r="D5">
-        <v>0.003200129121324835</v>
+        <v>0.002352127584299701</v>
       </c>
       <c r="E5">
-        <v>0.02667967591592024</v>
+        <v>0.03083337480651238</v>
       </c>
       <c r="F5">
-        <v>2.465980766937008</v>
+        <v>2.472459754898225</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.0110683848521294</v>
+      </c>
+      <c r="I5">
+        <v>0.0103740344461567</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.08293563401263526</v>
-      </c>
       <c r="K5">
-        <v>1.31738562356287</v>
+        <v>1.250849605576839</v>
       </c>
       <c r="L5">
-        <v>0.1625329916413989</v>
+        <v>0.08349278334449295</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.586634527021175</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5285836857295578</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.515173102758041</v>
+        <v>1.827901628723481</v>
       </c>
       <c r="C6">
-        <v>0.0831312095407668</v>
+        <v>0.7974097853739579</v>
       </c>
       <c r="D6">
-        <v>0.003181592385280041</v>
+        <v>0.002347818395876056</v>
       </c>
       <c r="E6">
-        <v>0.02664507284031004</v>
+        <v>0.03068015606439545</v>
       </c>
       <c r="F6">
-        <v>2.461932261802218</v>
+        <v>2.454798285406468</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.01128289233645377</v>
+      </c>
+      <c r="I6">
+        <v>0.01070530625717758</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0.08291605449666051</v>
-      </c>
       <c r="K6">
-        <v>1.309867422531539</v>
+        <v>1.241597263515793</v>
       </c>
       <c r="L6">
-        <v>0.1618621840184105</v>
+        <v>0.08286048777956978</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.587456838273354</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5252982772859696</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.569639462375903</v>
+        <v>1.91872575631885</v>
       </c>
       <c r="C7">
-        <v>0.08752109477785552</v>
+        <v>0.8376669970536739</v>
       </c>
       <c r="D7">
-        <v>0.003310065419018571</v>
+        <v>0.002497446127730396</v>
       </c>
       <c r="E7">
-        <v>0.02688768331007907</v>
+        <v>0.03201541775939631</v>
       </c>
       <c r="F7">
-        <v>2.490316909674931</v>
+        <v>2.528277865078053</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.009921454323031514</v>
+      </c>
+      <c r="I7">
+        <v>0.009446533933760826</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0.08305865317466044</v>
-      </c>
       <c r="K7">
-        <v>1.36222312152259</v>
+        <v>1.27191004034097</v>
       </c>
       <c r="L7">
-        <v>0.1665387044084525</v>
+        <v>0.08635500960281561</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.581928064899017</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5508462756855863</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.815220025125029</v>
+        <v>2.321063548336724</v>
       </c>
       <c r="C8">
-        <v>0.1071299728895241</v>
+        <v>1.014872827740305</v>
       </c>
       <c r="D8">
-        <v>0.003872362504907301</v>
+        <v>0.003175323840757693</v>
       </c>
       <c r="E8">
-        <v>0.0280202306585231</v>
+        <v>0.03793345335575893</v>
       </c>
       <c r="F8">
-        <v>2.622946903827213</v>
+        <v>2.867587497426655</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.005070982828604076</v>
+      </c>
+      <c r="I8">
+        <v>0.004875296035356413</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.0838585548326094</v>
-      </c>
       <c r="K8">
-        <v>1.597849639029761</v>
+        <v>1.415117170607274</v>
       </c>
       <c r="L8">
-        <v>0.1877114620206797</v>
+        <v>0.1021362064708597</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.562104906967548</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6633386877054619</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.319518752312604</v>
+        <v>3.117233575701903</v>
       </c>
       <c r="C9">
-        <v>0.1467639891226895</v>
+        <v>1.367645354262322</v>
       </c>
       <c r="D9">
-        <v>0.004960359175422369</v>
+        <v>0.004697196273643067</v>
       </c>
       <c r="E9">
-        <v>0.03048385782506458</v>
+        <v>0.04993630826806417</v>
       </c>
       <c r="F9">
-        <v>2.913301895375497</v>
+        <v>3.565174308775937</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.0003373571591849256</v>
+      </c>
+      <c r="I9">
+        <v>0.0007582262930618811</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.08609275287915708</v>
-      </c>
       <c r="K9">
-        <v>2.080183132056902</v>
+        <v>1.713830755684185</v>
       </c>
       <c r="L9">
-        <v>0.231495457225094</v>
+        <v>0.1342610884366877</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.541205748548109</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.88528054866579</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.708009682047759</v>
+        <v>3.714417083650403</v>
       </c>
       <c r="C10">
-        <v>0.1769522392377638</v>
+        <v>1.627829833374335</v>
       </c>
       <c r="D10">
-        <v>0.005753672881699146</v>
+        <v>0.00617664088430514</v>
       </c>
       <c r="E10">
-        <v>0.03246299309707723</v>
+        <v>0.05670726076655974</v>
       </c>
       <c r="F10">
-        <v>3.149045608155149</v>
+        <v>3.990223405252607</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.0004750760989860048</v>
+      </c>
+      <c r="I10">
+        <v>0.001685985505993415</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.08819500931258517</v>
-      </c>
       <c r="K10">
-        <v>2.450895749015757</v>
+        <v>1.882618940005997</v>
       </c>
       <c r="L10">
-        <v>0.2653998097917309</v>
+        <v>0.1501845691843258</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.538423854873813</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.039610330268331</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.889676231731869</v>
+        <v>4.04282140128953</v>
       </c>
       <c r="C11">
-        <v>0.1910052908261122</v>
+        <v>1.673252700502132</v>
       </c>
       <c r="D11">
-        <v>0.006114166791590492</v>
+        <v>0.008105488687282447</v>
       </c>
       <c r="E11">
-        <v>0.03340530564511468</v>
+        <v>0.04216066706855592</v>
       </c>
       <c r="F11">
-        <v>3.262146802547306</v>
+        <v>3.445592975825576</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.01910996939934506</v>
+      </c>
+      <c r="I11">
+        <v>0.002808690028868632</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.0892651059795071</v>
-      </c>
       <c r="K11">
-        <v>2.624082302264014</v>
+        <v>1.56570804186785</v>
       </c>
       <c r="L11">
-        <v>0.2812890900032556</v>
+        <v>0.0997904158407863</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.540292118371212</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.009757699820703</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.959274094452553</v>
+        <v>4.197209139302345</v>
       </c>
       <c r="C12">
-        <v>0.1963810431350055</v>
+        <v>1.650353247355724</v>
       </c>
       <c r="D12">
-        <v>0.006250716764942155</v>
+        <v>0.009403174578742846</v>
       </c>
       <c r="E12">
-        <v>0.0337686547933469</v>
+        <v>0.03474042598276794</v>
       </c>
       <c r="F12">
-        <v>3.305909772224481</v>
+        <v>2.955046951970417</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.05767307203779382</v>
+      </c>
+      <c r="I12">
+        <v>0.002868027280324981</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0.08968795450023848</v>
-      </c>
       <c r="K12">
-        <v>2.690409358926786</v>
+        <v>1.304057577941307</v>
       </c>
       <c r="L12">
-        <v>0.2873811199853833</v>
+        <v>0.07375011457834724</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.541488151808323</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.9508524833294771</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.944247554126832</v>
+        <v>4.22382813549109</v>
       </c>
       <c r="C13">
-        <v>0.1952207308098792</v>
+        <v>1.578206473383148</v>
       </c>
       <c r="D13">
-        <v>0.006221304836024899</v>
+        <v>0.01022871934163838</v>
       </c>
       <c r="E13">
-        <v>0.0336901031524679</v>
+        <v>0.03242295974097065</v>
       </c>
       <c r="F13">
-        <v>3.296441537015852</v>
+        <v>2.455703126819373</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1132174804953934</v>
+      </c>
+      <c r="I13">
+        <v>0.002406155688106537</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.08959608101569216</v>
-      </c>
       <c r="K13">
-        <v>2.676089949616198</v>
+        <v>1.053853093058628</v>
       </c>
       <c r="L13">
-        <v>0.2860656142805027</v>
+        <v>0.06444517723985399</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.541208187862168</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.8681619094708282</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.895385387665897</v>
+        <v>4.184491402964454</v>
       </c>
       <c r="C14">
-        <v>0.1914464219622687</v>
+        <v>1.506840110874748</v>
       </c>
       <c r="D14">
-        <v>0.006125399448855262</v>
+        <v>0.01055408735078434</v>
       </c>
       <c r="E14">
-        <v>0.03343506510905492</v>
+        <v>0.03393526129834257</v>
       </c>
       <c r="F14">
-        <v>3.265727932506309</v>
+        <v>2.10671955674286</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1624637776510554</v>
+      </c>
+      <c r="I14">
+        <v>0.002021661138042141</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.08929953301029414</v>
-      </c>
       <c r="K14">
-        <v>2.629523580791329</v>
+        <v>0.8863922914812505</v>
       </c>
       <c r="L14">
-        <v>0.2817887304661468</v>
+        <v>0.06807090938599814</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.54038049343572</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.8005341277515754</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.865563658574047</v>
+        <v>4.146957370041491</v>
       </c>
       <c r="C15">
-        <v>0.1891418588982958</v>
+        <v>1.480424693215866</v>
       </c>
       <c r="D15">
-        <v>0.006066662830804148</v>
+        <v>0.01051156554788957</v>
       </c>
       <c r="E15">
-        <v>0.03327971046502576</v>
+        <v>0.03452341557790106</v>
       </c>
       <c r="F15">
-        <v>3.247039470012993</v>
+        <v>2.012076581511849</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1749563507628835</v>
+      </c>
+      <c r="I15">
+        <v>0.001973967073116256</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.08912022403315589</v>
-      </c>
       <c r="K15">
-        <v>2.601100232281595</v>
+        <v>0.8426421943293008</v>
       </c>
       <c r="L15">
-        <v>0.2791790506986018</v>
+        <v>0.06998877153170113</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.539938327022483</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.7794439078517357</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.696244596462407</v>
+        <v>3.88106411615513</v>
       </c>
       <c r="C16">
-        <v>0.1760409574425523</v>
+        <v>1.386103063209418</v>
       </c>
       <c r="D16">
-        <v>0.005730113576372986</v>
+        <v>0.009480138906905466</v>
       </c>
       <c r="E16">
-        <v>0.03240229551416007</v>
+        <v>0.03215463004794383</v>
       </c>
       <c r="F16">
-        <v>3.141779694288545</v>
+        <v>1.936559603329869</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1623274153848655</v>
+      </c>
+      <c r="I16">
+        <v>0.001619299676244523</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.0881274706507682</v>
-      </c>
       <c r="K16">
-        <v>2.439676686640439</v>
+        <v>0.8223403187758578</v>
       </c>
       <c r="L16">
-        <v>0.2643714586620547</v>
+        <v>0.06572287263740506</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.538367970558966</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.73301935855919</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.593702234264924</v>
+        <v>3.698746734084693</v>
       </c>
       <c r="C17">
-        <v>0.1680915074050233</v>
+        <v>1.351785634790417</v>
       </c>
       <c r="D17">
-        <v>0.005523613186305454</v>
+        <v>0.00857466689548847</v>
       </c>
       <c r="E17">
-        <v>0.03187511059279657</v>
+        <v>0.0289844818906615</v>
       </c>
       <c r="F17">
-        <v>3.078769235954454</v>
+        <v>2.05772542387372</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.124721432281504</v>
+      </c>
+      <c r="I17">
+        <v>0.00163302292805767</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0.0875484490294447</v>
-      </c>
       <c r="K17">
-        <v>2.341875246391481</v>
+        <v>0.8918086452249554</v>
       </c>
       <c r="L17">
-        <v>0.2554123441917113</v>
+        <v>0.05867212104416986</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.538232990336013</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.7328668498510709</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.535181376379683</v>
+        <v>3.568230078218505</v>
       </c>
       <c r="C18">
-        <v>0.1635488039592872</v>
+        <v>1.362026261257427</v>
       </c>
       <c r="D18">
-        <v>0.005404796281176516</v>
+        <v>0.007647870702668591</v>
       </c>
       <c r="E18">
-        <v>0.03157580924183812</v>
+        <v>0.02784396661759236</v>
       </c>
       <c r="F18">
-        <v>3.043072882211391</v>
+        <v>2.390286000830841</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07190360557690667</v>
+      </c>
+      <c r="I18">
+        <v>0.001421218589745976</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.08722603663221662</v>
-      </c>
       <c r="K18">
-        <v>2.286044495743539</v>
+        <v>1.065528089191233</v>
       </c>
       <c r="L18">
-        <v>0.2503026321970765</v>
+        <v>0.05779446626998164</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.538447822074346</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7722914986025273</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.515443299126332</v>
+        <v>3.488356728208316</v>
       </c>
       <c r="C19">
-        <v>0.1620155750595416</v>
+        <v>1.412789465863341</v>
       </c>
       <c r="D19">
-        <v>0.005364556910752327</v>
+        <v>0.006747107582171674</v>
       </c>
       <c r="E19">
-        <v>0.03147513067407459</v>
+        <v>0.03301941286579879</v>
       </c>
       <c r="F19">
-        <v>3.031077785136773</v>
+        <v>2.877417153526409</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02646759557867995</v>
+      </c>
+      <c r="I19">
+        <v>0.001529433464469321</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.08711866175498173</v>
-      </c>
       <c r="K19">
-        <v>2.267211024141773</v>
+        <v>1.316513897597929</v>
       </c>
       <c r="L19">
-        <v>0.2485797806766641</v>
+        <v>0.07585216594255684</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.538569700713083</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.8436716480710658</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.604569907408234</v>
+        <v>3.555065196314956</v>
       </c>
       <c r="C20">
-        <v>0.1689346194292796</v>
+        <v>1.567577953086243</v>
       </c>
       <c r="D20">
-        <v>0.005545599369023435</v>
+        <v>0.005892669870205758</v>
       </c>
       <c r="E20">
-        <v>0.03193082116156454</v>
+        <v>0.05503473940537695</v>
       </c>
       <c r="F20">
-        <v>3.085419708076401</v>
+        <v>3.825766617339013</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.0001720541246532648</v>
+      </c>
+      <c r="I20">
+        <v>0.001903777766819381</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.08760897840236126</v>
-      </c>
       <c r="K20">
-        <v>2.352242065525616</v>
+        <v>1.802772962235196</v>
       </c>
       <c r="L20">
-        <v>0.256361516323949</v>
+        <v>0.1446628278478173</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.538216827727084</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.001130016566627</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.909714751286856</v>
+        <v>4.006846039075242</v>
       </c>
       <c r="C21">
-        <v>0.1925534887885476</v>
+        <v>1.782803381198732</v>
       </c>
       <c r="D21">
-        <v>0.006153567278769145</v>
+        <v>0.006913435457617689</v>
       </c>
       <c r="E21">
-        <v>0.03350979508831564</v>
+        <v>0.06441756207409455</v>
       </c>
       <c r="F21">
-        <v>3.274723138878812</v>
+        <v>4.297124669692124</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.001360820294534548</v>
+      </c>
+      <c r="I21">
+        <v>0.003926155292266031</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.08938614724029748</v>
-      </c>
       <c r="K21">
-        <v>2.643180257371114</v>
+        <v>2.010451646268422</v>
       </c>
       <c r="L21">
-        <v>0.2830428479925899</v>
+        <v>0.170148138736586</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.54061002533696</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.138276885398781</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.113885900104208</v>
+        <v>4.308407401322029</v>
       </c>
       <c r="C22">
-        <v>0.2083099421403602</v>
+        <v>1.917447237486783</v>
       </c>
       <c r="D22">
-        <v>0.006551194504037738</v>
+        <v>0.007648631004008866</v>
       </c>
       <c r="E22">
-        <v>0.03457998171822041</v>
+        <v>0.06926275288159545</v>
       </c>
       <c r="F22">
-        <v>3.40393743956713</v>
+        <v>4.584793014754666</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.003046679135481067</v>
+      </c>
+      <c r="I22">
+        <v>0.005900808503691124</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0.0906510529684077</v>
-      </c>
       <c r="K22">
-        <v>2.837717408066709</v>
+        <v>2.137841319046657</v>
       </c>
       <c r="L22">
-        <v>0.3009227786691753</v>
+        <v>0.1832830987379808</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.545042473330511</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.221576634737801</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.004448305782319</v>
+        <v>4.148144682466466</v>
       </c>
       <c r="C23">
-        <v>0.1998682119681519</v>
+        <v>1.841896179009154</v>
       </c>
       <c r="D23">
-        <v>0.006338910558540078</v>
+        <v>0.007200495085367575</v>
       </c>
       <c r="E23">
-        <v>0.03400513408068662</v>
+        <v>0.06656036149824907</v>
       </c>
       <c r="F23">
-        <v>3.334437948379104</v>
+        <v>4.449745338746652</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.002077213813631129</v>
+      </c>
+      <c r="I23">
+        <v>0.004489127163100015</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0.08996603254913182</v>
-      </c>
       <c r="K23">
-        <v>2.73345471505607</v>
+        <v>2.082667463823782</v>
       </c>
       <c r="L23">
-        <v>0.291336572279306</v>
+        <v>0.1766203502459476</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.542400714507266</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.176009869048457</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.599655293454703</v>
+        <v>3.544062691331533</v>
       </c>
       <c r="C24">
-        <v>0.1685533633001342</v>
+        <v>1.565960551488502</v>
       </c>
       <c r="D24">
-        <v>0.005535659725023123</v>
+        <v>0.005709966721100912</v>
       </c>
       <c r="E24">
-        <v>0.03190562266171426</v>
+        <v>0.05679498111425474</v>
       </c>
       <c r="F24">
-        <v>3.082411388080985</v>
+        <v>3.913945476262683</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>7.228219397159563E-05</v>
+      </c>
+      <c r="I24">
+        <v>0.001444211504460391</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0.08758158054020626</v>
-      </c>
       <c r="K24">
-        <v>2.347553998044816</v>
+        <v>1.854926668695555</v>
       </c>
       <c r="L24">
-        <v>0.2559322684914633</v>
+        <v>0.1513159028048889</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.53822322679504</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.006621765035838</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.180256393600132</v>
+        <v>2.899699232335649</v>
       </c>
       <c r="C25">
-        <v>0.1358814717587222</v>
+        <v>1.276110019298812</v>
       </c>
       <c r="D25">
-        <v>0.004667342576935241</v>
+        <v>0.00431953753816583</v>
       </c>
       <c r="E25">
-        <v>0.02978932658321298</v>
+        <v>0.04676774133619688</v>
       </c>
       <c r="F25">
-        <v>2.831125058161248</v>
+        <v>3.347302664714789</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.001060628728139168</v>
+      </c>
+      <c r="I25">
+        <v>0.001685080297693098</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0.08541170709414203</v>
-      </c>
       <c r="K25">
-        <v>1.947139573768339</v>
+        <v>1.613492815024287</v>
       </c>
       <c r="L25">
-        <v>0.2193734998222112</v>
+        <v>0.1249256283993034</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.544777817873666</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.8264137805328389</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.431306795466639</v>
+        <v>2.412685663235607</v>
       </c>
       <c r="C2">
-        <v>1.059456408526387</v>
+        <v>1.219424719024005</v>
       </c>
       <c r="D2">
-        <v>0.003325916060044287</v>
+        <v>0.01419373162321236</v>
       </c>
       <c r="E2">
-        <v>0.03944865213340876</v>
+        <v>0.04816176494035318</v>
       </c>
       <c r="F2">
-        <v>2.98169879209911</v>
+        <v>2.19870584505729</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.004040415295771593</v>
+        <v>0.003202451768602455</v>
       </c>
       <c r="I2">
-        <v>0.003616714146923883</v>
+        <v>0.002172880673368738</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.468958633025082</v>
+        <v>0.9351081919487285</v>
       </c>
       <c r="L2">
-        <v>0.1068561534998054</v>
+        <v>0.3994427124927</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.306138804770832</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.09741652555801039</v>
       </c>
       <c r="O2">
-        <v>0.6927668031752745</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7419195183456324</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.114427303118248</v>
+        <v>2.099795122390617</v>
       </c>
       <c r="C3">
-        <v>0.9198553990187008</v>
+        <v>1.056241304771447</v>
       </c>
       <c r="D3">
-        <v>0.002774922830608428</v>
+        <v>0.01224243204604392</v>
       </c>
       <c r="E3">
-        <v>0.03476622703454701</v>
+        <v>0.04283581434052763</v>
       </c>
       <c r="F3">
-        <v>2.710812228210429</v>
+        <v>2.034891297948278</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.007313885838117651</v>
+        <v>0.00590266169930076</v>
       </c>
       <c r="I3">
-        <v>0.006657159412940317</v>
+        <v>0.004109388761015964</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.353939993598729</v>
+        <v>0.8887585511707314</v>
       </c>
       <c r="L3">
-        <v>0.09432279933134424</v>
+        <v>0.3906001842956357</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2810768591481718</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.08733504846255258</v>
       </c>
       <c r="O3">
-        <v>0.6043044170704732</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6462004541513338</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.92040255021368</v>
+        <v>1.907822497109976</v>
       </c>
       <c r="C4">
-        <v>0.8352618003162888</v>
+        <v>0.9573067124738373</v>
       </c>
       <c r="D4">
-        <v>0.002462981599869796</v>
+        <v>0.01110418328372553</v>
       </c>
       <c r="E4">
-        <v>0.03194601645803274</v>
+        <v>0.03960773830009856</v>
       </c>
       <c r="F4">
-        <v>2.544743963127743</v>
+        <v>1.934206738255213</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.009881649421902589</v>
+        <v>0.008036221775306662</v>
       </c>
       <c r="I4">
-        <v>0.009132217529092657</v>
+        <v>0.00576153423619008</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.283031120264482</v>
+        <v>0.8599221146257818</v>
       </c>
       <c r="L4">
-        <v>0.08668181143683995</v>
+        <v>0.3846256980732292</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2665197150234846</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.08115039575047689</v>
       </c>
       <c r="O4">
-        <v>0.5502805593363718</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5877060244639623</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.841257915028763</v>
+        <v>1.829449770219554</v>
       </c>
       <c r="C5">
-        <v>0.8018923790228314</v>
+        <v>0.9180231115316815</v>
       </c>
       <c r="D5">
-        <v>0.002352127584299701</v>
+        <v>0.01072100919230223</v>
       </c>
       <c r="E5">
-        <v>0.03083337480651238</v>
+        <v>0.03832375957663992</v>
       </c>
       <c r="F5">
-        <v>2.472459754898225</v>
+        <v>1.889897330895025</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0110683848521294</v>
+        <v>0.009024694409371065</v>
       </c>
       <c r="I5">
-        <v>0.0103740344461567</v>
+        <v>0.006641906119059904</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.250849605576839</v>
+        <v>0.8460452382621568</v>
       </c>
       <c r="L5">
-        <v>0.08349278334449295</v>
+        <v>0.3812092635677828</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2601185306240765</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.07856373226075775</v>
       </c>
       <c r="O5">
-        <v>0.5285836857295578</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5641444710993753</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.827901628723481</v>
+        <v>1.816248356774139</v>
       </c>
       <c r="C6">
-        <v>0.7974097853739579</v>
+        <v>0.9124323503390599</v>
       </c>
       <c r="D6">
-        <v>0.002347818395876056</v>
+        <v>0.0107406929747107</v>
       </c>
       <c r="E6">
-        <v>0.03068015606439545</v>
+        <v>0.0381390913755375</v>
       </c>
       <c r="F6">
-        <v>2.454798285406468</v>
+        <v>1.878594914907382</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01128289233645377</v>
+        <v>0.0092026119931784</v>
       </c>
       <c r="I6">
-        <v>0.01070530625717758</v>
+        <v>0.006922441541004964</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.241597263515793</v>
+        <v>0.8412668694517009</v>
       </c>
       <c r="L6">
-        <v>0.08286048777956978</v>
+        <v>0.3796049774241439</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2582478646102722</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.07805501460985198</v>
       </c>
       <c r="O6">
-        <v>0.5252982772859696</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5605000899337114</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.91872575631885</v>
+        <v>1.90624657109953</v>
       </c>
       <c r="C7">
-        <v>0.8376669970536739</v>
+        <v>0.9592833723911269</v>
       </c>
       <c r="D7">
-        <v>0.002497446127730396</v>
+        <v>0.01132623744901728</v>
       </c>
       <c r="E7">
-        <v>0.03201541775939631</v>
+        <v>0.03966729581165573</v>
       </c>
       <c r="F7">
-        <v>2.528277865078053</v>
+        <v>1.922854448621763</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.009921454323031514</v>
+        <v>0.008066913671691545</v>
       </c>
       <c r="I7">
-        <v>0.009446533933760826</v>
+        <v>0.006100393540022786</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.27191004034097</v>
+        <v>0.8530101271648576</v>
       </c>
       <c r="L7">
-        <v>0.08635500960281561</v>
+        <v>0.3818129812021098</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2641614062815805</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.08089901631033314</v>
       </c>
       <c r="O7">
-        <v>0.5508462756855863</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.588112134499589</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.321063548336724</v>
+        <v>2.304039568964242</v>
       </c>
       <c r="C8">
-        <v>1.014872827740305</v>
+        <v>1.166224166823724</v>
       </c>
       <c r="D8">
-        <v>0.003175323840757693</v>
+        <v>0.01381977497249665</v>
       </c>
       <c r="E8">
-        <v>0.03793345335575893</v>
+        <v>0.04641841843591976</v>
       </c>
       <c r="F8">
-        <v>2.867587497426655</v>
+        <v>2.128043818649786</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.005070982828604076</v>
+        <v>0.004046894124219214</v>
       </c>
       <c r="I8">
-        <v>0.004875296035356413</v>
+        <v>0.003122874648020968</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.415117170607274</v>
+        <v>0.9103804269506597</v>
       </c>
       <c r="L8">
-        <v>0.1021362064708597</v>
+        <v>0.3930262780448572</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2941897505654936</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09364768192659767</v>
       </c>
       <c r="O8">
-        <v>0.6633386877054619</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7098145594242737</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.117233575701903</v>
+        <v>3.087495411589259</v>
       </c>
       <c r="C9">
-        <v>1.367645354262322</v>
+        <v>1.579039309582811</v>
       </c>
       <c r="D9">
-        <v>0.004697196273643067</v>
+        <v>0.01881637071490516</v>
       </c>
       <c r="E9">
-        <v>0.04993630826806417</v>
+        <v>0.05994656986296931</v>
       </c>
       <c r="F9">
-        <v>3.565174308775937</v>
+        <v>2.550198840147502</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0003373571591849256</v>
+        <v>0.0002260790560875137</v>
       </c>
       <c r="I9">
-        <v>0.0007582262930618811</v>
+        <v>0.0008068296400400854</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.713830755684185</v>
+        <v>1.032233711938254</v>
       </c>
       <c r="L9">
-        <v>0.1342610884366877</v>
+        <v>0.4153726769587536</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3643167366564342</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1192327847801877</v>
       </c>
       <c r="O9">
-        <v>0.88528054866579</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9498887821833648</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.714417083650403</v>
+        <v>3.673242256164656</v>
       </c>
       <c r="C10">
-        <v>1.627829833374335</v>
+        <v>1.879768506657228</v>
       </c>
       <c r="D10">
-        <v>0.00617664088430514</v>
+        <v>0.0226374331207353</v>
       </c>
       <c r="E10">
-        <v>0.05670726076655974</v>
+        <v>0.06723016457144659</v>
       </c>
       <c r="F10">
-        <v>3.990223405252607</v>
+        <v>2.801356152459817</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0004750760989860048</v>
+        <v>0.0004878193491619776</v>
       </c>
       <c r="I10">
-        <v>0.001685985505993415</v>
+        <v>0.002128474233034972</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.882618940005997</v>
+        <v>1.092940691552045</v>
       </c>
       <c r="L10">
-        <v>0.1501845691843258</v>
+        <v>0.4192858889147217</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.4095945984346159</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1311460222419925</v>
       </c>
       <c r="O10">
-        <v>1.039610330268331</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.115877745892419</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.04282140128953</v>
+        <v>4.002709523706301</v>
       </c>
       <c r="C11">
-        <v>1.673252700502132</v>
+        <v>1.907616947052702</v>
       </c>
       <c r="D11">
-        <v>0.008105488687282447</v>
+        <v>0.02168519404592573</v>
       </c>
       <c r="E11">
-        <v>0.04216066706855592</v>
+        <v>0.04884045917925128</v>
       </c>
       <c r="F11">
-        <v>3.445592975825576</v>
+        <v>2.429724639449759</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01910996939934506</v>
+        <v>0.01912184910249337</v>
       </c>
       <c r="I11">
-        <v>0.002808690028868632</v>
+        <v>0.003374686428972318</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.56570804186785</v>
+        <v>0.9077228193692335</v>
       </c>
       <c r="L11">
-        <v>0.0997904158407863</v>
+        <v>0.3460639359265087</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.345789843282077</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08824776932712197</v>
       </c>
       <c r="O11">
-        <v>1.009757699820703</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.078965821943818</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.197209139302345</v>
+        <v>4.160615361883799</v>
       </c>
       <c r="C12">
-        <v>1.650353247355724</v>
+        <v>1.861789081165853</v>
       </c>
       <c r="D12">
-        <v>0.009403174578742846</v>
+        <v>0.01997607880879748</v>
       </c>
       <c r="E12">
-        <v>0.03474042598276794</v>
+        <v>0.0385206535342606</v>
       </c>
       <c r="F12">
-        <v>2.955046951970417</v>
+        <v>2.100813932987137</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05767307203779382</v>
+        <v>0.05769756281291194</v>
       </c>
       <c r="I12">
-        <v>0.002868027280324981</v>
+        <v>0.003462948156159662</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.304057577941307</v>
+        <v>0.76225607956858</v>
       </c>
       <c r="L12">
-        <v>0.07375011457834724</v>
+        <v>0.2929094051758838</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2904932760741161</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.0682740557814796</v>
       </c>
       <c r="O12">
-        <v>0.9508524833294771</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.012085748261384</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.22382813549109</v>
+        <v>4.193037732706557</v>
       </c>
       <c r="C13">
-        <v>1.578206473383148</v>
+        <v>1.760917295109891</v>
       </c>
       <c r="D13">
-        <v>0.01022871934163838</v>
+        <v>0.01797306282509581</v>
       </c>
       <c r="E13">
-        <v>0.03242295974097065</v>
+        <v>0.0339133557050042</v>
       </c>
       <c r="F13">
-        <v>2.455703126819373</v>
+        <v>1.769499651316323</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1132174804953934</v>
+        <v>0.1132477588525518</v>
       </c>
       <c r="I13">
-        <v>0.002406155688106537</v>
+        <v>0.003030476193014664</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>1.053853093058628</v>
+        <v>0.6282598105494799</v>
       </c>
       <c r="L13">
-        <v>0.06444517723985399</v>
+        <v>0.247116029498553</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2353711028950158</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06423409899819355</v>
       </c>
       <c r="O13">
-        <v>0.8681619094708282</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.9201192077379332</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.184491402964454</v>
+        <v>4.158722287678358</v>
       </c>
       <c r="C14">
-        <v>1.506840110874748</v>
+        <v>1.666941603382668</v>
       </c>
       <c r="D14">
-        <v>0.01055408735078434</v>
+        <v>0.01654487562339746</v>
       </c>
       <c r="E14">
-        <v>0.03393526129834257</v>
+        <v>0.03419225598409348</v>
       </c>
       <c r="F14">
-        <v>2.10671955674286</v>
+        <v>1.538616664314944</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1624637776510554</v>
+        <v>0.1624764365813292</v>
       </c>
       <c r="I14">
-        <v>0.002021661138042141</v>
+        <v>0.002651913635490999</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.8863922914812505</v>
+        <v>0.5404157018910212</v>
       </c>
       <c r="L14">
-        <v>0.06807090938599814</v>
+        <v>0.2181684819217828</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1976903521807287</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07095563178313924</v>
       </c>
       <c r="O14">
-        <v>0.8005341277515754</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.845475032549345</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.146957370041491</v>
+        <v>4.122874222360622</v>
       </c>
       <c r="C15">
-        <v>1.480424693215866</v>
+        <v>1.633699874461456</v>
       </c>
       <c r="D15">
-        <v>0.01051156554788957</v>
+        <v>0.01614918855707437</v>
       </c>
       <c r="E15">
-        <v>0.03452341557790106</v>
+        <v>0.03456684471221383</v>
       </c>
       <c r="F15">
-        <v>2.012076581511849</v>
+        <v>1.476613781398314</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1749563507628835</v>
+        <v>0.1749545433036701</v>
       </c>
       <c r="I15">
-        <v>0.001973967073116256</v>
+        <v>0.002612988850041909</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.8426421943293008</v>
+        <v>0.5182005821238036</v>
       </c>
       <c r="L15">
-        <v>0.06998877153170113</v>
+        <v>0.2112327113451613</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1875699267083419</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07356027806705967</v>
       </c>
       <c r="O15">
-        <v>0.7794439078517357</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.8223395770586848</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.88106411615513</v>
+        <v>3.86075660657059</v>
       </c>
       <c r="C16">
-        <v>1.386103063209418</v>
+        <v>1.528348317028303</v>
       </c>
       <c r="D16">
-        <v>0.009480138906905466</v>
+        <v>0.01505776246824908</v>
       </c>
       <c r="E16">
-        <v>0.03215463004794383</v>
+        <v>0.03263293591277794</v>
       </c>
       <c r="F16">
-        <v>1.936559603329869</v>
+        <v>1.43542907809551</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1623274153848655</v>
+        <v>0.1622209111396415</v>
       </c>
       <c r="I16">
-        <v>0.001619299676244523</v>
+        <v>0.002129598943024114</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.8223403187758578</v>
+        <v>0.5165626503732383</v>
       </c>
       <c r="L16">
-        <v>0.06572287263740506</v>
+        <v>0.2146608706561395</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1809910952500573</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0693894103224082</v>
       </c>
       <c r="O16">
-        <v>0.73301935855919</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7730197902560505</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.698746734084693</v>
+        <v>3.678646093499651</v>
       </c>
       <c r="C17">
-        <v>1.351785634790417</v>
+        <v>1.497424499018507</v>
       </c>
       <c r="D17">
-        <v>0.00857466689548847</v>
+        <v>0.01496195072395778</v>
       </c>
       <c r="E17">
-        <v>0.0289844818906615</v>
+        <v>0.03036693150522884</v>
       </c>
       <c r="F17">
-        <v>2.05772542387372</v>
+        <v>1.523382588861892</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.124721432281504</v>
+        <v>0.1245447204426853</v>
       </c>
       <c r="I17">
-        <v>0.00163302292805767</v>
+        <v>0.002035674404525345</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.8918086452249554</v>
+        <v>0.5605045554742532</v>
       </c>
       <c r="L17">
-        <v>0.05867212104416986</v>
+        <v>0.232823954905232</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1948038093607778</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0609805179765921</v>
       </c>
       <c r="O17">
-        <v>0.7328668498510709</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.774282912773316</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.568230078218505</v>
+        <v>3.545459005294504</v>
       </c>
       <c r="C18">
-        <v>1.362026261257427</v>
+        <v>1.524264925591694</v>
       </c>
       <c r="D18">
-        <v>0.007647870702668591</v>
+        <v>0.01571404971338453</v>
       </c>
       <c r="E18">
-        <v>0.02784396661759236</v>
+        <v>0.03086784339262971</v>
       </c>
       <c r="F18">
-        <v>2.390286000830841</v>
+        <v>1.750960227399176</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07190360557690667</v>
+        <v>0.07172834941236772</v>
       </c>
       <c r="I18">
-        <v>0.001421218589745976</v>
+        <v>0.001744300916980634</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>1.065528089191233</v>
+        <v>0.6596376020789307</v>
       </c>
       <c r="L18">
-        <v>0.05779446626998164</v>
+        <v>0.2702044224381979</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2313291424264534</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0568447111821262</v>
       </c>
       <c r="O18">
-        <v>0.7722914986025273</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8192724386413346</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.488356728208316</v>
+        <v>3.461102085576613</v>
       </c>
       <c r="C19">
-        <v>1.412789465863341</v>
+        <v>1.600732766267242</v>
       </c>
       <c r="D19">
-        <v>0.006747107582171674</v>
+        <v>0.01765924868719182</v>
       </c>
       <c r="E19">
-        <v>0.03301941286579879</v>
+        <v>0.03854828793891674</v>
       </c>
       <c r="F19">
-        <v>2.877417153526409</v>
+        <v>2.077942554431402</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02646759557867995</v>
+        <v>0.0263611824263279</v>
       </c>
       <c r="I19">
-        <v>0.001529433464469321</v>
+        <v>0.001921916633951248</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.316513897597929</v>
+        <v>0.7980410356553946</v>
       </c>
       <c r="L19">
-        <v>0.07585216594255684</v>
+        <v>0.3210816273825685</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2842267871054673</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.06956866573321641</v>
       </c>
       <c r="O19">
-        <v>0.8436716480710658</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8992176025461873</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.555065196314956</v>
+        <v>3.517552562346509</v>
       </c>
       <c r="C20">
-        <v>1.567577953086243</v>
+        <v>1.807594833128746</v>
       </c>
       <c r="D20">
-        <v>0.005892669870205758</v>
+        <v>0.02238623841394372</v>
       </c>
       <c r="E20">
-        <v>0.05503473940537695</v>
+        <v>0.06539653305939375</v>
       </c>
       <c r="F20">
-        <v>3.825766617339013</v>
+        <v>2.69989123677945</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0001720541246532648</v>
+        <v>0.0001917324706486312</v>
       </c>
       <c r="I20">
-        <v>0.001903777766819381</v>
+        <v>0.002468030329164428</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823846983</v>
       </c>
       <c r="K20">
-        <v>1.802772962235196</v>
+        <v>1.055829835935086</v>
       </c>
       <c r="L20">
-        <v>0.1446628278478173</v>
+        <v>0.4107267316010734</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3891434937547871</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1269969493959735</v>
       </c>
       <c r="O20">
-        <v>1.001130016566627</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.073871314505197</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.006846039075242</v>
+        <v>3.958191859889098</v>
       </c>
       <c r="C21">
-        <v>1.782803381198732</v>
+        <v>2.06070951603931</v>
       </c>
       <c r="D21">
-        <v>0.006913435457617689</v>
+        <v>0.02593807438016071</v>
       </c>
       <c r="E21">
-        <v>0.06441756207409455</v>
+        <v>0.07590695393745861</v>
       </c>
       <c r="F21">
-        <v>4.297124669692124</v>
+        <v>2.988117095965151</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.001360820294534548</v>
+        <v>0.001267038371571827</v>
       </c>
       <c r="I21">
-        <v>0.003926155292266031</v>
+        <v>0.004405371776053713</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>2.010451646268422</v>
+        <v>1.144971955630979</v>
       </c>
       <c r="L21">
-        <v>0.170148138736586</v>
+        <v>0.4284834258573653</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4420735780283849</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1474437056561655</v>
       </c>
       <c r="O21">
-        <v>1.138276885398781</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.222148566173871</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.308407401322029</v>
+        <v>4.251867443574326</v>
       </c>
       <c r="C22">
-        <v>1.917447237486783</v>
+        <v>2.218594413907681</v>
       </c>
       <c r="D22">
-        <v>0.007648631004008866</v>
+        <v>0.02781173544846283</v>
       </c>
       <c r="E22">
-        <v>0.06926275288159545</v>
+        <v>0.08121176929928708</v>
       </c>
       <c r="F22">
-        <v>4.584793014754666</v>
+        <v>3.162919064259597</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.003046679135481067</v>
+        <v>0.002732761698556185</v>
       </c>
       <c r="I22">
-        <v>0.005900808503691124</v>
+        <v>0.006010532872260832</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.137841319046657</v>
+        <v>1.199173392348044</v>
       </c>
       <c r="L22">
-        <v>0.1832830987379808</v>
+        <v>0.4380314936523462</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4762431572967003</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1576321648165475</v>
       </c>
       <c r="O22">
-        <v>1.221576634737801</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.312118579803922</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.148144682466466</v>
+        <v>4.095722072509488</v>
       </c>
       <c r="C23">
-        <v>1.841896179009154</v>
+        <v>2.131029383478563</v>
       </c>
       <c r="D23">
-        <v>0.007200495085367575</v>
+        <v>0.02648650998281354</v>
       </c>
       <c r="E23">
-        <v>0.06656036149824907</v>
+        <v>0.07827317475101836</v>
       </c>
       <c r="F23">
-        <v>4.449745338746652</v>
+        <v>3.082005796001937</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.002077213813631129</v>
+        <v>0.001891694460362858</v>
       </c>
       <c r="I23">
-        <v>0.004489127163100015</v>
+        <v>0.004753989607285014</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>2.082667463823782</v>
+        <v>1.177865741373026</v>
       </c>
       <c r="L23">
-        <v>0.1766203502459476</v>
+        <v>0.4356413283635803</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4609723134439818</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1524507220566349</v>
       </c>
       <c r="O23">
-        <v>1.176009869048457</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.263159740863884</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.544062691331533</v>
+        <v>3.505901782623539</v>
       </c>
       <c r="C24">
-        <v>1.565960551488502</v>
+        <v>1.809219782329876</v>
       </c>
       <c r="D24">
-        <v>0.005709966721100912</v>
+        <v>0.02217454616558356</v>
       </c>
       <c r="E24">
-        <v>0.05679498111425474</v>
+        <v>0.06754218682572066</v>
       </c>
       <c r="F24">
-        <v>3.913945476262683</v>
+        <v>2.75875874368171</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.228219397159563E-05</v>
+        <v>9.242930193753551E-05</v>
       </c>
       <c r="I24">
-        <v>0.001444211504460391</v>
+        <v>0.001909787188068002</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555349711</v>
       </c>
       <c r="K24">
-        <v>1.854926668695555</v>
+        <v>1.085591349682872</v>
       </c>
       <c r="L24">
-        <v>0.1513159028048889</v>
+        <v>0.4216809632421885</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4004992256561479</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1326906589705672</v>
       </c>
       <c r="O24">
-        <v>1.006621765035838</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.08054384226098</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.899699232335649</v>
+        <v>2.87406714216911</v>
       </c>
       <c r="C25">
-        <v>1.276110019298812</v>
+        <v>1.47051912502161</v>
       </c>
       <c r="D25">
-        <v>0.00431953753816583</v>
+        <v>0.0178495560400016</v>
       </c>
       <c r="E25">
-        <v>0.04676774133619688</v>
+        <v>0.0563699391714696</v>
       </c>
       <c r="F25">
-        <v>3.347302664714789</v>
+        <v>2.416440810839205</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.001060628728139168</v>
+        <v>0.0007863429492014351</v>
       </c>
       <c r="I25">
-        <v>0.001685080297693098</v>
+        <v>0.001473523583652714</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.0759519602266292</v>
       </c>
       <c r="K25">
-        <v>1.613492815024287</v>
+        <v>0.9875868982377014</v>
       </c>
       <c r="L25">
-        <v>0.1249256283993034</v>
+        <v>0.4053202868732626</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3400859287677704</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1118665024743919</v>
       </c>
       <c r="O25">
-        <v>0.8264137805328389</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.8858971488208738</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
